--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5698</v>
+        <v>0.5675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5698</v>
+        <v>0.5675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5698</v>
+        <v>0.5675</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5698</v>
+        <v>0.5675</v>
       </c>
       <c r="F2" t="n">
-        <v>1483099.4359</v>
+        <v>2086058.1341</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5725233333333336</v>
+        <v>0.572496666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.574</v>
+        <v>0.5698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.574</v>
+        <v>0.5698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.574</v>
+        <v>0.5698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.574</v>
+        <v>0.5698</v>
       </c>
       <c r="F3" t="n">
-        <v>13416.6004</v>
+        <v>1483099.4359</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5724883333333337</v>
+        <v>0.5725233333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5716</v>
+        <v>0.574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5716</v>
+        <v>0.574</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5716</v>
+        <v>0.574</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5716</v>
+        <v>0.574</v>
       </c>
       <c r="F4" t="n">
-        <v>1316517.3615</v>
+        <v>13416.6004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5725333333333337</v>
+        <v>0.5724883333333337</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.569</v>
+        <v>0.5716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.569</v>
+        <v>0.5716</v>
       </c>
       <c r="D5" t="n">
-        <v>0.569</v>
+        <v>0.5716</v>
       </c>
       <c r="E5" t="n">
-        <v>0.569</v>
+        <v>0.5716</v>
       </c>
       <c r="F5" t="n">
-        <v>768916.4237</v>
+        <v>1316517.3615</v>
       </c>
       <c r="G5" t="n">
-        <v>0.572566666666667</v>
+        <v>0.5725333333333337</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5713</v>
+        <v>0.569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5713</v>
+        <v>0.569</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5713</v>
+        <v>0.569</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5713</v>
+        <v>0.569</v>
       </c>
       <c r="F6" t="n">
-        <v>2532566.0477</v>
+        <v>768916.4237</v>
       </c>
       <c r="G6" t="n">
-        <v>0.572661666666667</v>
+        <v>0.572566666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5684</v>
+        <v>0.5713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5684</v>
+        <v>0.5713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5684</v>
+        <v>0.5713</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5684</v>
+        <v>0.5713</v>
       </c>
       <c r="F7" t="n">
-        <v>1592531.1107</v>
+        <v>2532566.0477</v>
       </c>
       <c r="G7" t="n">
-        <v>0.572686666666667</v>
+        <v>0.572661666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.5684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.5684</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.5684</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.5684</v>
       </c>
       <c r="F8" t="n">
-        <v>2421680.6474</v>
+        <v>1592531.1107</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5726866666666671</v>
+        <v>0.572686666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5682</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5682</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5682</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5682</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>2574759.4589</v>
+        <v>2421680.6474</v>
       </c>
       <c r="G9" t="n">
-        <v>0.572716666666667</v>
+        <v>0.5726866666666671</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.572</v>
+        <v>0.5682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.572</v>
+        <v>0.5682</v>
       </c>
       <c r="D10" t="n">
-        <v>0.572</v>
+        <v>0.5682</v>
       </c>
       <c r="E10" t="n">
-        <v>0.572</v>
+        <v>0.5682</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>2574759.4589</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5728333333333337</v>
+        <v>0.572716666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="F11" t="n">
-        <v>746144.2441</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5728550000000004</v>
+        <v>0.5728333333333337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5704</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5704</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5704</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5704</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>2164166.1966</v>
+        <v>746144.2441</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5728250000000004</v>
+        <v>0.5728550000000004</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5712</v>
+        <v>0.5704</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5712</v>
+        <v>0.5704</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5712</v>
+        <v>0.5704</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5712</v>
+        <v>0.5704</v>
       </c>
       <c r="F13" t="n">
-        <v>873370.9807</v>
+        <v>2164166.1966</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5728216666666671</v>
+        <v>0.5728250000000004</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5707</v>
+        <v>0.5712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5707</v>
+        <v>0.5712</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5707</v>
+        <v>0.5712</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5707</v>
+        <v>0.5712</v>
       </c>
       <c r="F14" t="n">
-        <v>2184744.5416</v>
+        <v>873370.9807</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5729150000000004</v>
+        <v>0.5728216666666671</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5673</v>
+        <v>0.5707</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5673</v>
+        <v>0.5707</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5673</v>
+        <v>0.5707</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5673</v>
+        <v>0.5707</v>
       </c>
       <c r="F15" t="n">
-        <v>213233</v>
+        <v>2184744.5416</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5727816666666672</v>
+        <v>0.5729150000000004</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="F16" t="n">
-        <v>55714.3048</v>
+        <v>213233</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5727166666666671</v>
+        <v>0.5727816666666672</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0.5672</v>
       </c>
       <c r="F17" t="n">
-        <v>5113.9402</v>
+        <v>55714.3048</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5726466666666672</v>
+        <v>0.5727166666666671</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5671</v>
+        <v>0.5672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5659</v>
+        <v>0.5672</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5671</v>
+        <v>0.5672</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5659</v>
+        <v>0.5672</v>
       </c>
       <c r="F18" t="n">
-        <v>2103768</v>
+        <v>5113.9402</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5725116666666672</v>
+        <v>0.5726466666666672</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5659</v>
+        <v>0.5671</v>
       </c>
       <c r="C19" t="n">
         <v>0.5659</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5659</v>
+        <v>0.5671</v>
       </c>
       <c r="E19" t="n">
         <v>0.5659</v>
       </c>
       <c r="F19" t="n">
-        <v>2853151.3382</v>
+        <v>2103768</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5723633333333338</v>
+        <v>0.5725116666666672</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5665</v>
+        <v>0.5659</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5665</v>
+        <v>0.5659</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5665</v>
+        <v>0.5659</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5665</v>
+        <v>0.5659</v>
       </c>
       <c r="F20" t="n">
-        <v>986360.3958000001</v>
+        <v>2853151.3382</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5722133333333338</v>
+        <v>0.5723633333333338</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5672</v>
+        <v>0.5665</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5672</v>
+        <v>0.5665</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5672</v>
+        <v>0.5665</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5672</v>
+        <v>0.5665</v>
       </c>
       <c r="F21" t="n">
-        <v>938.9132</v>
+        <v>986360.3958000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.572161666666667</v>
+        <v>0.5722133333333338</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="F22" t="n">
-        <v>1729867.2377</v>
+        <v>938.9132</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5720350000000003</v>
+        <v>0.572161666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5672</v>
+        <v>0.5661</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5672</v>
+        <v>0.5661</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5672</v>
+        <v>0.5661</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5672</v>
+        <v>0.5661</v>
       </c>
       <c r="F23" t="n">
-        <v>915.2190000000001</v>
+        <v>1729867.2377</v>
       </c>
       <c r="G23" t="n">
-        <v>0.571946666666667</v>
+        <v>0.5720350000000003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="F24" t="n">
-        <v>2231643.9681</v>
+        <v>915.2190000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5718466666666671</v>
+        <v>0.571946666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="F25" t="n">
-        <v>900.354</v>
+        <v>2231643.9681</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5717800000000004</v>
+        <v>0.5718466666666671</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5665</v>
+        <v>0.5672</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5665</v>
+        <v>0.5672</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5665</v>
+        <v>0.5672</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5665</v>
+        <v>0.5672</v>
       </c>
       <c r="F26" t="n">
-        <v>1845194.3445</v>
+        <v>900.354</v>
       </c>
       <c r="G26" t="n">
-        <v>0.571716666666667</v>
+        <v>0.5717800000000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5672</v>
+        <v>0.5665</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5668</v>
+        <v>0.5665</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5672</v>
+        <v>0.5665</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5668</v>
+        <v>0.5665</v>
       </c>
       <c r="F27" t="n">
-        <v>2224603.2829</v>
+        <v>1845194.3445</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5715633333333336</v>
+        <v>0.571716666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>0.5672</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="D28" t="n">
         <v>0.5672</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="F28" t="n">
-        <v>1054.6799</v>
+        <v>2224603.2829</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5714600000000003</v>
+        <v>0.5715633333333336</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="F29" t="n">
-        <v>2888256.4699</v>
+        <v>1054.6799</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5714100000000003</v>
+        <v>0.5714600000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5662</v>
+        <v>0.5661</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5662</v>
+        <v>0.5661</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5662</v>
+        <v>0.5661</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5662</v>
+        <v>0.5661</v>
       </c>
       <c r="F30" t="n">
-        <v>664499.9236</v>
+        <v>2888256.4699</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5713483333333337</v>
+        <v>0.5714100000000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="F31" t="n">
-        <v>905.8119</v>
+        <v>664499.9236</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5712050000000004</v>
+        <v>0.5713483333333337</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="F32" t="n">
-        <v>1918350.1292</v>
+        <v>905.8119</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5711050000000004</v>
+        <v>0.5712050000000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5667</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5667</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5667</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5667</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>999840.4379</v>
+        <v>1918350.1292</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5709700000000003</v>
+        <v>0.5711050000000004</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5662</v>
+        <v>0.5667</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5662</v>
+        <v>0.5667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5662</v>
+        <v>0.5667</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5662</v>
+        <v>0.5667</v>
       </c>
       <c r="F34" t="n">
-        <v>1331437.2943</v>
+        <v>999840.4379</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5708100000000003</v>
+        <v>0.5709700000000003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5659</v>
+        <v>0.5662</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5662</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5659</v>
+        <v>0.5662</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5662</v>
       </c>
       <c r="F35" t="n">
-        <v>1125221.0671</v>
+        <v>1331437.2943</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5705833333333336</v>
+        <v>0.5708100000000003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5672</v>
+        <v>0.5659</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5672</v>
+        <v>0.5659</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>905.7688000000001</v>
+        <v>1125221.0671</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5706050000000003</v>
+        <v>0.5705833333333336</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5664</v>
+        <v>0.5672</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5664</v>
+        <v>0.5672</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5664</v>
+        <v>0.5672</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5664</v>
+        <v>0.5672</v>
       </c>
       <c r="F37" t="n">
-        <v>1533831.1892</v>
+        <v>905.7688000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5704016666666669</v>
+        <v>0.5706050000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,35 +1693,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5668</v>
+        <v>0.5664</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5668</v>
+        <v>0.5664</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5668</v>
+        <v>0.5664</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5668</v>
+        <v>0.5664</v>
       </c>
       <c r="F38" t="n">
-        <v>1257977.8634</v>
+        <v>1533831.1892</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5702050000000002</v>
+        <v>0.5704016666666669</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.5664</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.5664</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1732,40 +1728,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="F39" t="n">
-        <v>927.7915</v>
+        <v>1257977.8634</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5700916666666669</v>
+        <v>0.5702050000000002</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0.5668</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.5664</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1775,40 +1763,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="F40" t="n">
-        <v>798226.9229</v>
+        <v>927.7915</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5698916666666669</v>
+        <v>0.5700916666666669</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.5664</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1818,35 +1798,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="F41" t="n">
-        <v>881.9277</v>
+        <v>798226.9229</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5697433333333336</v>
+        <v>0.5698916666666669</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.5666</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.5666</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1857,40 +1833,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="F42" t="n">
-        <v>1632211.22</v>
+        <v>881.9277</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5695166666666669</v>
+        <v>0.5697433333333336</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.5666</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1900,40 +1868,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>892.1420000000001</v>
+        <v>1632211.22</v>
       </c>
       <c r="G43" t="n">
         <v>0.5695166666666669</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.5666</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1943,35 +1903,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="F44" t="n">
-        <v>1100615.4606</v>
+        <v>892.1420000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5693100000000002</v>
+        <v>0.5695166666666669</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.5672</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -1982,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="F45" t="n">
-        <v>943.2114</v>
+        <v>1100615.4606</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5692783333333336</v>
+        <v>0.5693100000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2006,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2023,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5669</v>
+        <v>0.5672</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5669</v>
+        <v>0.5672</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5669</v>
+        <v>0.5672</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5669</v>
+        <v>0.5672</v>
       </c>
       <c r="F46" t="n">
-        <v>2856111.3577</v>
+        <v>943.2114</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5690833333333335</v>
+        <v>0.5692783333333336</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2064,35 +2008,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5664</v>
+        <v>0.5669</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5664</v>
+        <v>0.5669</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5664</v>
+        <v>0.5669</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5664</v>
+        <v>0.5669</v>
       </c>
       <c r="F47" t="n">
-        <v>1508711.3387</v>
+        <v>2856111.3577</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5689633333333336</v>
+        <v>0.5690833333333335</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.5669</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
@@ -2103,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5659</v>
+        <v>0.5664</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5659</v>
+        <v>0.5664</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5659</v>
+        <v>0.5664</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5659</v>
+        <v>0.5664</v>
       </c>
       <c r="F48" t="n">
-        <v>747012.291</v>
+        <v>1508711.3387</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5687516666666669</v>
+        <v>0.5689633333333336</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2127,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2144,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5659</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5659</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5659</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5659</v>
       </c>
       <c r="F49" t="n">
-        <v>1492772.0915</v>
+        <v>747012.291</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5686516666666669</v>
+        <v>0.5687516666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2168,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2185,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5651</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5651</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5651</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5651</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>1058845.7051</v>
+        <v>1492772.0915</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5684783333333335</v>
+        <v>0.5686516666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2220,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5672</v>
+        <v>0.5651</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5672</v>
+        <v>0.5651</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5672</v>
+        <v>0.5651</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5672</v>
+        <v>0.5651</v>
       </c>
       <c r="F51" t="n">
-        <v>1039.0921</v>
+        <v>1058845.7051</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5682916666666669</v>
+        <v>0.5684783333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2267,10 +2195,10 @@
         <v>0.5672</v>
       </c>
       <c r="F52" t="n">
-        <v>593685.7971</v>
+        <v>1039.0921</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5681600000000002</v>
+        <v>0.5682916666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2290,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="F53" t="n">
-        <v>987.0933</v>
+        <v>593685.7971</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5681233333333336</v>
+        <v>0.5681600000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2325,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5673</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5673</v>
       </c>
       <c r="F54" t="n">
-        <v>974061</v>
+        <v>987.0933</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5679133333333336</v>
+        <v>0.5681233333333336</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2360,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5673</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5585</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>42257.9468</v>
+        <v>974061</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5678183333333336</v>
+        <v>0.5679133333333336</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2395,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5602</v>
+        <v>0.5673</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5602</v>
+        <v>0.5673</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5602</v>
+        <v>0.5673</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5602</v>
+        <v>0.5585</v>
       </c>
       <c r="F56" t="n">
-        <v>1023462.444</v>
+        <v>42257.9468</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5676850000000004</v>
+        <v>0.5678183333333336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2430,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5673</v>
+        <v>0.5602</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5673</v>
+        <v>0.5602</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5673</v>
+        <v>0.5602</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5673</v>
+        <v>0.5602</v>
       </c>
       <c r="F57" t="n">
-        <v>985.0281</v>
+        <v>1023462.444</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5676216666666671</v>
+        <v>0.5676850000000004</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2468,19 +2396,19 @@
         <v>0.5673</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="D58" t="n">
         <v>0.5673</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="F58" t="n">
-        <v>1397220.081330231</v>
+        <v>985.0281</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5675300000000003</v>
+        <v>0.5676216666666671</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2500,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5673</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5618</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5673</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5618</v>
       </c>
       <c r="F59" t="n">
-        <v>2668379.5018</v>
+        <v>1397220.081330231</v>
       </c>
       <c r="G59" t="n">
-        <v>0.567306666666667</v>
+        <v>0.5675300000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2535,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5585</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5585</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5585</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5585</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>159311.0012</v>
+        <v>2668379.5018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.567026666666667</v>
+        <v>0.567306666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2570,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5669</v>
+        <v>0.5585</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5669</v>
+        <v>0.5585</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5669</v>
+        <v>0.5585</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5669</v>
+        <v>0.5585</v>
       </c>
       <c r="F61" t="n">
-        <v>2502283.4717</v>
+        <v>159311.0012</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5670166666666669</v>
+        <v>0.567026666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2605,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5672</v>
+        <v>0.5669</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5672</v>
+        <v>0.5669</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5672</v>
+        <v>0.5669</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5672</v>
+        <v>0.5669</v>
       </c>
       <c r="F62" t="n">
-        <v>889.1733</v>
+        <v>2502283.4717</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5669733333333336</v>
+        <v>0.5670166666666669</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2640,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5657</v>
+        <v>0.5672</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5657</v>
+        <v>0.5672</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5657</v>
+        <v>0.5672</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5657</v>
+        <v>0.5672</v>
       </c>
       <c r="F63" t="n">
-        <v>2814609.8696</v>
+        <v>889.1733</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5668350000000003</v>
+        <v>0.5669733333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2675,28 +2603,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5614</v>
+        <v>0.5657</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5614</v>
+        <v>0.5657</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5614</v>
+        <v>0.5657</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5614</v>
+        <v>0.5657</v>
       </c>
       <c r="F64" t="n">
-        <v>1951467.9845</v>
+        <v>2814609.8696</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5666650000000003</v>
+        <v>0.5668350000000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2710,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5672</v>
+        <v>0.5614</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5672</v>
+        <v>0.5614</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5672</v>
+        <v>0.5614</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5672</v>
+        <v>0.5614</v>
       </c>
       <c r="F65" t="n">
-        <v>891.7172</v>
+        <v>1951467.9845</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5666350000000002</v>
+        <v>0.5666650000000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2745,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5584</v>
+        <v>0.5672</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5584</v>
+        <v>0.5672</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5584</v>
+        <v>0.5672</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5584</v>
+        <v>0.5672</v>
       </c>
       <c r="F66" t="n">
-        <v>898</v>
+        <v>891.7172</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5664200000000003</v>
+        <v>0.5666350000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2780,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="F67" t="n">
-        <v>908.9714</v>
+        <v>898</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5664000000000002</v>
+        <v>0.5664200000000003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2815,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="F68" t="n">
-        <v>3083651.5201</v>
+        <v>908.9714</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5662400000000003</v>
+        <v>0.5664000000000002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5672</v>
+        <v>0.5605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5672</v>
+        <v>0.5605</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5672</v>
+        <v>0.5605</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5672</v>
+        <v>0.5605</v>
       </c>
       <c r="F69" t="n">
-        <v>969.002</v>
+        <v>3083651.5201</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5662233333333336</v>
+        <v>0.5662400000000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2885,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="F70" t="n">
-        <v>1619219.9416</v>
+        <v>969.002</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5661050000000003</v>
+        <v>0.5662233333333336</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2920,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5672</v>
+        <v>0.5649</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5672</v>
+        <v>0.5649</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5672</v>
+        <v>0.5649</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5672</v>
+        <v>0.5649</v>
       </c>
       <c r="F71" t="n">
-        <v>892.7944</v>
+        <v>1619219.9416</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5660400000000003</v>
+        <v>0.5661050000000003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2955,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="F72" t="n">
-        <v>3159617.7344</v>
+        <v>892.7944</v>
       </c>
       <c r="G72" t="n">
-        <v>0.565926666666667</v>
+        <v>0.5660400000000003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2990,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5672</v>
+        <v>0.5636</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5672</v>
+        <v>0.5636</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5672</v>
+        <v>0.5636</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5672</v>
+        <v>0.5636</v>
       </c>
       <c r="F73" t="n">
-        <v>1928.305</v>
+        <v>3159617.7344</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5658600000000004</v>
+        <v>0.565926666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3025,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5592</v>
+        <v>0.5672</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5592</v>
+        <v>0.5672</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5592</v>
+        <v>0.5672</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5592</v>
+        <v>0.5672</v>
       </c>
       <c r="F74" t="n">
-        <v>944964.6279</v>
+        <v>1928.305</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5656683333333336</v>
+        <v>0.5658600000000004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3060,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5672</v>
+        <v>0.5592</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5672</v>
+        <v>0.5592</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5672</v>
+        <v>0.5592</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5672</v>
+        <v>0.5592</v>
       </c>
       <c r="F75" t="n">
-        <v>892.3539</v>
+        <v>944964.6279</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5656666666666669</v>
+        <v>0.5656683333333336</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3107,7 +3035,7 @@
         <v>0.5672</v>
       </c>
       <c r="F76" t="n">
-        <v>967.8976</v>
+        <v>892.3539</v>
       </c>
       <c r="G76" t="n">
         <v>0.5656666666666669</v>
@@ -3130,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5606</v>
+        <v>0.5672</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5606</v>
+        <v>0.5672</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5606</v>
+        <v>0.5672</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5606</v>
+        <v>0.5672</v>
       </c>
       <c r="F77" t="n">
-        <v>2116211.6014</v>
+        <v>967.8976</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5655566666666669</v>
+        <v>0.5656666666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3165,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5584</v>
+        <v>0.5606</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5584</v>
+        <v>0.5606</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5584</v>
+        <v>0.5606</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5584</v>
+        <v>0.5606</v>
       </c>
       <c r="F78" t="n">
-        <v>2703238.1488</v>
+        <v>2116211.6014</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5654316666666669</v>
+        <v>0.5655566666666669</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3200,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5584</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5584</v>
       </c>
       <c r="F79" t="n">
-        <v>1574276.4346</v>
+        <v>2703238.1488</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5654500000000002</v>
+        <v>0.5654316666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3235,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5638</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5638</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>2673553.1206</v>
+        <v>1574276.4346</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5654050000000003</v>
+        <v>0.5654500000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,10 +3210,10 @@
         <v>0.5638</v>
       </c>
       <c r="F81" t="n">
-        <v>1383811.725</v>
+        <v>2673553.1206</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5653483333333337</v>
+        <v>0.5654050000000003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3305,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5632</v>
+        <v>0.5638</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5632</v>
+        <v>0.5638</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5632</v>
+        <v>0.5638</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5632</v>
+        <v>0.5638</v>
       </c>
       <c r="F82" t="n">
-        <v>1883801.904</v>
+        <v>1383811.725</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5653000000000004</v>
+        <v>0.5653483333333337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3340,31 +3268,35 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5616</v>
+        <v>0.5632</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5616</v>
+        <v>0.5632</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5616</v>
+        <v>0.5632</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5616</v>
+        <v>0.5632</v>
       </c>
       <c r="F83" t="n">
-        <v>1500313.1546</v>
+        <v>1883801.904</v>
       </c>
       <c r="G83" t="n">
-        <v>0.565206666666667</v>
+        <v>0.5653000000000004</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.5638</v>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
@@ -3375,32 +3307,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5659</v>
+        <v>0.5616</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5659</v>
+        <v>0.5616</v>
       </c>
       <c r="F84" t="n">
-        <v>1039914.2796</v>
+        <v>1500313.1546</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5652166666666669</v>
+        <v>0.565206666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3410,32 +3350,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5633</v>
+        <v>0.5659</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5633</v>
+        <v>0.5672</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5633</v>
+        <v>0.5672</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5633</v>
+        <v>0.5659</v>
       </c>
       <c r="F85" t="n">
-        <v>2239146.5979</v>
+        <v>1039914.2796</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5651516666666669</v>
+        <v>0.5652166666666669</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3445,22 +3393,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5618</v>
+        <v>0.5633</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5618</v>
+        <v>0.5633</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5618</v>
+        <v>0.5633</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5618</v>
+        <v>0.5633</v>
       </c>
       <c r="F86" t="n">
-        <v>2628581.8417</v>
+        <v>2239146.5979</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5650733333333336</v>
+        <v>0.5651516666666669</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3480,22 +3428,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5639</v>
+        <v>0.5618</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5639</v>
+        <v>0.5618</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5639</v>
+        <v>0.5618</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5639</v>
+        <v>0.5618</v>
       </c>
       <c r="F87" t="n">
-        <v>2581633.1826</v>
+        <v>2628581.8417</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5650250000000002</v>
+        <v>0.5650733333333336</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3515,22 +3463,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5643</v>
+        <v>0.5639</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5643</v>
+        <v>0.5639</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5643</v>
+        <v>0.5639</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5643</v>
+        <v>0.5639</v>
       </c>
       <c r="F88" t="n">
-        <v>1455956.5866</v>
+        <v>2581633.1826</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5649766666666669</v>
+        <v>0.5650250000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3550,22 +3498,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5631</v>
+        <v>0.5643</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5631</v>
+        <v>0.5643</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5631</v>
+        <v>0.5643</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5631</v>
+        <v>0.5643</v>
       </c>
       <c r="F89" t="n">
-        <v>1641683.8122</v>
+        <v>1455956.5866</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5649266666666669</v>
+        <v>0.5649766666666669</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3585,22 +3533,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5585</v>
+        <v>0.5631</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5584</v>
+        <v>0.5631</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5585</v>
+        <v>0.5631</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5584</v>
+        <v>0.5631</v>
       </c>
       <c r="F90" t="n">
-        <v>11079217.8231</v>
+        <v>1641683.8122</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5647966666666668</v>
+        <v>0.5649266666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3620,22 +3568,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5611</v>
+        <v>0.5585</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5611</v>
+        <v>0.5584</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5611</v>
+        <v>0.5585</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5611</v>
+        <v>0.5584</v>
       </c>
       <c r="F91" t="n">
-        <v>3137474.3015</v>
+        <v>11079217.8231</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5646950000000003</v>
+        <v>0.5647966666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3655,22 +3603,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5638</v>
+        <v>0.5611</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5638</v>
+        <v>0.5611</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5638</v>
+        <v>0.5611</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5638</v>
+        <v>0.5611</v>
       </c>
       <c r="F92" t="n">
-        <v>2293823.3311</v>
+        <v>3137474.3015</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5646583333333336</v>
+        <v>0.5646950000000003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3690,22 +3638,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5583</v>
+        <v>0.5638</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5583</v>
+        <v>0.5638</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5583</v>
+        <v>0.5638</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5583</v>
+        <v>0.5638</v>
       </c>
       <c r="F93" t="n">
-        <v>106281.0181</v>
+        <v>2293823.3311</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5645183333333337</v>
+        <v>0.5646583333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3725,22 +3673,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5672</v>
+        <v>0.5583</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5672</v>
+        <v>0.5583</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5672</v>
+        <v>0.5583</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5672</v>
+        <v>0.5583</v>
       </c>
       <c r="F94" t="n">
-        <v>959.4068</v>
+        <v>106281.0181</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5645350000000003</v>
+        <v>0.5645183333333337</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3760,22 +3708,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5586</v>
+        <v>0.5672</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5586</v>
+        <v>0.5672</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5586</v>
+        <v>0.5672</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5586</v>
+        <v>0.5672</v>
       </c>
       <c r="F95" t="n">
-        <v>1491094.7959</v>
+        <v>959.4068</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5644283333333336</v>
+        <v>0.5645350000000003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3795,22 +3743,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5626</v>
+        <v>0.5586</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5626</v>
+        <v>0.5586</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5626</v>
+        <v>0.5586</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5626</v>
+        <v>0.5586</v>
       </c>
       <c r="F96" t="n">
-        <v>1408195.252</v>
+        <v>1491094.7959</v>
       </c>
       <c r="G96" t="n">
-        <v>0.564351666666667</v>
+        <v>0.5644283333333336</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3830,22 +3778,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5626</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5626</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5626</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5626</v>
       </c>
       <c r="F97" t="n">
-        <v>1279576.4135</v>
+        <v>1408195.252</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5642450000000003</v>
+        <v>0.564351666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3865,22 +3813,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5596</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5583</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5596</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5583</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>1019395.1535</v>
+        <v>1279576.4135</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5641033333333337</v>
+        <v>0.5642450000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3900,22 +3848,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5644</v>
+        <v>0.5596</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5644</v>
+        <v>0.5583</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5644</v>
+        <v>0.5596</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5644</v>
+        <v>0.5583</v>
       </c>
       <c r="F99" t="n">
-        <v>1905734.259</v>
+        <v>1019395.1535</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5640566666666671</v>
+        <v>0.5641033333333337</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3935,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5671</v>
+        <v>0.5644</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5671</v>
+        <v>0.5644</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5671</v>
+        <v>0.5644</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5671</v>
+        <v>0.5644</v>
       </c>
       <c r="F100" t="n">
-        <v>1245238.5939</v>
+        <v>1905734.259</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5640650000000005</v>
+        <v>0.5640566666666671</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3970,22 +3918,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5594</v>
+        <v>0.5671</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5594</v>
+        <v>0.5671</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5594</v>
+        <v>0.5671</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5594</v>
+        <v>0.5671</v>
       </c>
       <c r="F101" t="n">
-        <v>3144760.7375</v>
+        <v>1245238.5939</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5639350000000004</v>
+        <v>0.5640650000000005</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4005,22 +3953,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5607</v>
+        <v>0.5594</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5607</v>
+        <v>0.5594</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5607</v>
+        <v>0.5594</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5607</v>
+        <v>0.5594</v>
       </c>
       <c r="F102" t="n">
-        <v>3135234.8799</v>
+        <v>3144760.7375</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5638633333333337</v>
+        <v>0.5639350000000004</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4040,22 +3988,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5658</v>
+        <v>0.5607</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5658</v>
+        <v>0.5607</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5658</v>
+        <v>0.5607</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5658</v>
+        <v>0.5607</v>
       </c>
       <c r="F103" t="n">
-        <v>1899256.6822</v>
+        <v>3135234.8799</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5638400000000005</v>
+        <v>0.5638633333333337</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4075,22 +4023,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5658</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5658</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5658</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5658</v>
       </c>
       <c r="F104" t="n">
-        <v>842714.9939</v>
+        <v>1899256.6822</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5637533333333338</v>
+        <v>0.5638400000000005</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4110,22 +4058,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5666</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5666</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5666</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5666</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1613977.6309</v>
+        <v>842714.9939</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5637433333333337</v>
+        <v>0.5637533333333338</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4145,22 +4093,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5636</v>
+        <v>0.5666</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5636</v>
+        <v>0.5666</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5636</v>
+        <v>0.5666</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5636</v>
+        <v>0.5666</v>
       </c>
       <c r="F106" t="n">
-        <v>2904327.457</v>
+        <v>1613977.6309</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5636883333333338</v>
+        <v>0.5637433333333337</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4180,28 +4128,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5616</v>
+        <v>0.5636</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5616</v>
+        <v>0.5636</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5616</v>
+        <v>0.5636</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5616</v>
+        <v>0.5636</v>
       </c>
       <c r="F107" t="n">
-        <v>2061121.0201</v>
+        <v>2904327.457</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5636083333333338</v>
+        <v>0.5636883333333338</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4215,22 +4163,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5596</v>
+        <v>0.5616</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5596</v>
+        <v>0.5616</v>
       </c>
       <c r="F108" t="n">
-        <v>2178200.1934</v>
+        <v>2061121.0201</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5635033333333338</v>
+        <v>0.5636083333333338</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4245,6 +4193,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2178200.1934</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.5635033333333338</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2086058.1341</v>
       </c>
       <c r="G2" t="n">
+        <v>0.5730066666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.572496666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1483099.4359</v>
       </c>
       <c r="G3" t="n">
+        <v>0.5727533333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5725233333333336</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>13416.6004</v>
       </c>
       <c r="G4" t="n">
+        <v>0.5724466666666665</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5724883333333337</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1316517.3615</v>
       </c>
       <c r="G5" t="n">
+        <v>0.5724199999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5725333333333337</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>768916.4237</v>
       </c>
       <c r="G6" t="n">
+        <v>0.5719866666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.572566666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2532566.0477</v>
       </c>
       <c r="G7" t="n">
+        <v>0.5715133333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.572661666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1592531.1107</v>
       </c>
       <c r="G8" t="n">
+        <v>0.5710666666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.572686666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>2421680.6474</v>
       </c>
       <c r="G9" t="n">
+        <v>0.5711066666666669</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5726866666666671</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2574759.4589</v>
       </c>
       <c r="G10" t="n">
+        <v>0.5704800000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.572716666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10000</v>
       </c>
       <c r="G11" t="n">
+        <v>0.5704133333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5728333333333337</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>746144.2441</v>
       </c>
       <c r="G12" t="n">
+        <v>0.5706066666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5728550000000004</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>2164166.1966</v>
       </c>
       <c r="G13" t="n">
+        <v>0.5705600000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5728250000000004</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>873370.9807</v>
       </c>
       <c r="G14" t="n">
+        <v>0.57082</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5728216666666671</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2184744.5416</v>
       </c>
       <c r="G15" t="n">
+        <v>0.5707066666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5729150000000004</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>213233</v>
       </c>
       <c r="G16" t="n">
+        <v>0.5701733333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5727816666666672</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>55714.3048</v>
       </c>
       <c r="G17" t="n">
+        <v>0.5701533333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5727166666666671</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5113.9402</v>
       </c>
       <c r="G18" t="n">
+        <v>0.5699799999999998</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.5726466666666672</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2103768</v>
       </c>
       <c r="G19" t="n">
+        <v>0.5694399999999998</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5725116666666672</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2853151.3382</v>
       </c>
       <c r="G20" t="n">
+        <v>0.5690599999999998</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5723633333333338</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>986360.3958000001</v>
       </c>
       <c r="G21" t="n">
+        <v>0.5688933333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5722133333333338</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>938.9132</v>
       </c>
       <c r="G22" t="n">
+        <v>0.5686199999999997</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.572161666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1729867.2377</v>
       </c>
       <c r="G23" t="n">
+        <v>0.5684666666666663</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.5720350000000003</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>915.2190000000001</v>
       </c>
       <c r="G24" t="n">
+        <v>0.5682733333333331</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.571946666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2231643.9681</v>
       </c>
       <c r="G25" t="n">
+        <v>0.5681666666666663</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.5718466666666671</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>900.354</v>
       </c>
       <c r="G26" t="n">
+        <v>0.5678466666666663</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.5717800000000004</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1845194.3445</v>
       </c>
       <c r="G27" t="n">
+        <v>0.5675399999999996</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.571716666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2224603.2829</v>
       </c>
       <c r="G28" t="n">
+        <v>0.5672999999999997</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.5715633333333336</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1054.6799</v>
       </c>
       <c r="G29" t="n">
+        <v>0.5670333333333331</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.5714600000000003</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2888256.4699</v>
       </c>
       <c r="G30" t="n">
+        <v>0.5667266666666664</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.5714100000000003</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>664499.9236</v>
       </c>
       <c r="G31" t="n">
+        <v>0.5666533333333331</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.5713483333333337</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>905.8119</v>
       </c>
       <c r="G32" t="n">
+        <v>0.5666533333333331</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.5712050000000004</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1918350.1292</v>
       </c>
       <c r="G33" t="n">
+        <v>0.5665733333333332</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.5711050000000004</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>999840.4379</v>
       </c>
       <c r="G34" t="n">
+        <v>0.5666266666666665</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.5709700000000003</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1331437.2943</v>
       </c>
       <c r="G35" t="n">
+        <v>0.5666466666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.5708100000000003</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1125221.0671</v>
       </c>
       <c r="G36" t="n">
+        <v>0.5665466666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.5705833333333336</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>905.7688000000001</v>
       </c>
       <c r="G37" t="n">
+        <v>0.5665466666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.5706050000000003</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1533831.1892</v>
       </c>
       <c r="G38" t="n">
+        <v>0.5665666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.5704016666666669</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1257977.8634</v>
       </c>
       <c r="G39" t="n">
+        <v>0.5665399999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.5702050000000002</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>927.7915</v>
       </c>
       <c r="G40" t="n">
+        <v>0.56658</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.5700916666666669</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>798226.9229</v>
       </c>
       <c r="G41" t="n">
+        <v>0.5665399999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.5698916666666669</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>881.9277</v>
       </c>
       <c r="G42" t="n">
+        <v>0.5665866666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.5697433333333336</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1632211.22</v>
       </c>
       <c r="G43" t="n">
+        <v>0.5664666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.5695166666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>892.1420000000001</v>
       </c>
       <c r="G44" t="n">
+        <v>0.5664666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.5695166666666669</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1100615.4606</v>
       </c>
       <c r="G45" t="n">
+        <v>0.5664733333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.5693100000000002</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>943.2114</v>
       </c>
       <c r="G46" t="n">
+        <v>0.5665399999999998</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.5692783333333336</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2856111.3577</v>
       </c>
       <c r="G47" t="n">
+        <v>0.5665199999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.5690833333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1508711.3387</v>
       </c>
       <c r="G48" t="n">
+        <v>0.5665466666666664</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.5689633333333336</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>747012.291</v>
       </c>
       <c r="G49" t="n">
+        <v>0.5664933333333331</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.5687516666666669</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1492772.0915</v>
       </c>
       <c r="G50" t="n">
+        <v>0.5664799999999998</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.5686516666666669</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1058845.7051</v>
       </c>
       <c r="G51" t="n">
+        <v>0.5664866666666664</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.5684783333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1039.0921</v>
       </c>
       <c r="G52" t="n">
+        <v>0.5664866666666664</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.5682916666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>593685.7971</v>
       </c>
       <c r="G53" t="n">
+        <v>0.5665399999999997</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.5681600000000002</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>987.0933</v>
       </c>
       <c r="G54" t="n">
+        <v>0.5665733333333329</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.5681233333333336</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>974061</v>
       </c>
       <c r="G55" t="n">
+        <v>0.5664266666666663</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.5679133333333336</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>42257.9468</v>
       </c>
       <c r="G56" t="n">
+        <v>0.5664733333333329</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.5678183333333336</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1023462.444</v>
       </c>
       <c r="G57" t="n">
+        <v>0.5660066666666663</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.5676850000000004</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>985.0281</v>
       </c>
       <c r="G58" t="n">
+        <v>0.5661599999999997</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.5676216666666671</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,27 @@
         <v>1397220.081330231</v>
       </c>
       <c r="G59" t="n">
+        <v>0.5657999999999996</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.5675300000000003</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.5673</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2663,25 @@
         <v>2668379.5018</v>
       </c>
       <c r="G60" t="n">
+        <v>0.5653199999999996</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.567306666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2705,27 @@
         <v>159311.0012</v>
       </c>
       <c r="G61" t="n">
+        <v>0.5647399999999997</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.567026666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5590000000000001</v>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2749,27 @@
         <v>2502283.4717</v>
       </c>
       <c r="G62" t="n">
+        <v>0.5647399999999997</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.5670166666666669</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5585</v>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2793,27 @@
         <v>889.1733</v>
       </c>
       <c r="G63" t="n">
+        <v>0.5647933333333329</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.5669733333333336</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5669</v>
+      </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2837,25 @@
         <v>2814609.8696</v>
       </c>
       <c r="G64" t="n">
+        <v>0.5647799999999996</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.5668350000000003</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2879,27 @@
         <v>1951467.9845</v>
       </c>
       <c r="G65" t="n">
+        <v>0.564473333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.5666650000000003</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.5657</v>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2923,27 @@
         <v>891.7172</v>
       </c>
       <c r="G66" t="n">
+        <v>0.5646133333333331</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.5666350000000002</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5614</v>
+      </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2967,27 @@
         <v>898</v>
       </c>
       <c r="G67" t="n">
+        <v>0.5640266666666665</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.5664200000000003</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.5672</v>
+      </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3011,27 @@
         <v>908.9714</v>
       </c>
       <c r="G68" t="n">
+        <v>0.5640266666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.5664000000000002</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.5584</v>
+      </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3055,27 @@
         <v>3083651.5201</v>
       </c>
       <c r="G69" t="n">
+        <v>0.563573333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.5662400000000003</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.5672</v>
+      </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3099,27 @@
         <v>969.002</v>
       </c>
       <c r="G70" t="n">
+        <v>0.5637199999999998</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.5662233333333336</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.5605</v>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3143,25 @@
         <v>1619219.9416</v>
       </c>
       <c r="G71" t="n">
+        <v>0.5635599999999997</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.5661050000000003</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3185,25 @@
         <v>892.7944</v>
       </c>
       <c r="G72" t="n">
+        <v>0.5640266666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.5660400000000003</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3227,25 @@
         <v>3159617.7344</v>
       </c>
       <c r="G73" t="n">
+        <v>0.5637799999999997</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.565926666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3269,25 @@
         <v>1928.305</v>
       </c>
       <c r="G74" t="n">
+        <v>0.5641399999999998</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.5658600000000004</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3311,25 @@
         <v>944964.6279</v>
       </c>
       <c r="G75" t="n">
+        <v>0.5641533333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.5656683333333336</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3353,25 @@
         <v>892.3539</v>
       </c>
       <c r="G76" t="n">
+        <v>0.5647333333333331</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.5656666666666669</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3395,25 @@
         <v>967.8976</v>
       </c>
       <c r="G77" t="n">
+        <v>0.5647533333333331</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.5656666666666669</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3437,25 @@
         <v>2116211.6014</v>
       </c>
       <c r="G78" t="n">
+        <v>0.5643133333333331</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.5655566666666669</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3479,25 @@
         <v>2703238.1488</v>
       </c>
       <c r="G79" t="n">
+        <v>0.5638266666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.5654316666666669</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3521,25 @@
         <v>1574276.4346</v>
       </c>
       <c r="G80" t="n">
+        <v>0.5641999999999998</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.5654500000000002</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3563,25 @@
         <v>2673553.1206</v>
       </c>
       <c r="G81" t="n">
+        <v>0.5639733333333332</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.5654050000000003</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3605,25 @@
         <v>1383811.725</v>
       </c>
       <c r="G82" t="n">
+        <v>0.5643333333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.5653483333333337</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,22 +3647,25 @@
         <v>1883801.904</v>
       </c>
       <c r="G83" t="n">
+        <v>0.5640666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.5653000000000004</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.5638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,26 +3689,27 @@
         <v>1500313.1546</v>
       </c>
       <c r="G84" t="n">
+        <v>0.56414</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.565206666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.5632</v>
       </c>
-      <c r="K84" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3365,26 +3733,27 @@
         <v>1039914.2796</v>
       </c>
       <c r="G85" t="n">
+        <v>0.56414</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.5652166666666669</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.5616</v>
       </c>
-      <c r="K85" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3777,27 @@
         <v>2239146.5979</v>
       </c>
       <c r="G86" t="n">
+        <v>0.5640333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.5651516666666669</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.5672</v>
+      </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3821,25 @@
         <v>2628581.8417</v>
       </c>
       <c r="G87" t="n">
+        <v>0.5636733333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.5650733333333336</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3863,25 @@
         <v>2581633.1826</v>
       </c>
       <c r="G88" t="n">
+        <v>0.5636933333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.5650250000000002</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +3905,25 @@
         <v>1455956.5866</v>
       </c>
       <c r="G89" t="n">
+        <v>0.5635</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.5649766666666669</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +3947,25 @@
         <v>1641683.8122</v>
       </c>
       <c r="G90" t="n">
+        <v>0.56376</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.5649266666666669</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +3989,25 @@
         <v>11079217.8231</v>
       </c>
       <c r="G91" t="n">
+        <v>0.5631733333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.5647966666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +4031,25 @@
         <v>3137474.3015</v>
       </c>
       <c r="G92" t="n">
+        <v>0.5627666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.5646950000000003</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +4073,25 @@
         <v>2293823.3311</v>
       </c>
       <c r="G93" t="n">
+        <v>0.56298</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.5646583333333336</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4115,25 @@
         <v>106281.0181</v>
       </c>
       <c r="G94" t="n">
+        <v>0.5629733333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.5645183333333337</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4157,25 @@
         <v>959.4068</v>
       </c>
       <c r="G95" t="n">
+        <v>0.5629866666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.5645350000000003</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4199,25 @@
         <v>1491094.7959</v>
       </c>
       <c r="G96" t="n">
+        <v>0.5626399999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.5644283333333336</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4241,25 @@
         <v>1408195.252</v>
       </c>
       <c r="G97" t="n">
+        <v>0.5625599999999998</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.564351666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4283,25 @@
         <v>1279576.4135</v>
       </c>
       <c r="G98" t="n">
+        <v>0.5623466666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.5642450000000003</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4325,25 @@
         <v>1019395.1535</v>
       </c>
       <c r="G99" t="n">
+        <v>0.5621266666666664</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.5641033333333337</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4367,25 @@
         <v>1905734.259</v>
       </c>
       <c r="G100" t="n">
+        <v>0.5619399999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.5640566666666671</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4409,25 @@
         <v>1245238.5939</v>
       </c>
       <c r="G101" t="n">
+        <v>0.5621933333333332</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.5640650000000005</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4451,25 @@
         <v>3144760.7375</v>
       </c>
       <c r="G102" t="n">
+        <v>0.5620333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.5639350000000004</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4493,25 @@
         <v>3135234.8799</v>
       </c>
       <c r="G103" t="n">
+        <v>0.5618199999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.5638633333333337</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4535,25 @@
         <v>1899256.6822</v>
       </c>
       <c r="G104" t="n">
+        <v>0.56192</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.5638400000000005</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4577,25 @@
         <v>842714.9939</v>
       </c>
       <c r="G105" t="n">
+        <v>0.5617799999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.5637533333333338</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4619,25 @@
         <v>1613977.6309</v>
       </c>
       <c r="G106" t="n">
+        <v>0.5623266666666665</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.5637433333333337</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4661,25 @@
         <v>2904327.457</v>
       </c>
       <c r="G107" t="n">
+        <v>0.5624933333333331</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.5636883333333338</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,18 +4703,25 @@
         <v>2061121.0201</v>
       </c>
       <c r="G108" t="n">
+        <v>0.5623466666666664</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.5636083333333338</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,18 +4745,445 @@
         <v>2178200.1934</v>
       </c>
       <c r="G109" t="n">
+        <v>0.562433333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.5635033333333338</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="F110" t="n">
+        <v>694085.3107</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.562433333333333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.5635233333333338</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1237.729</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.5630066666666663</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.5635583333333337</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1744179.03</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.562853333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.5634433333333337</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F113" t="n">
+        <v>934.4586</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.5633333333333329</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.5634433333333337</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1025244.9355</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.5635933333333329</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.5633583333333336</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F115" t="n">
+        <v>929.0683</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.5637799999999996</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.5633950000000003</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1200768.4791</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.5634466666666663</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.5633083333333336</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1384995.0944</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.5633733333333329</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.563276666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="F118" t="n">
+        <v>707302.4126</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.5631599999999995</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.5631133333333336</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5581</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5581</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5581</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5581</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2710971.4825</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.5626466666666662</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.563051666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5675</v>
+        <v>0.572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5675</v>
+        <v>0.572</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5675</v>
+        <v>0.572</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5675</v>
+        <v>0.572</v>
       </c>
       <c r="F2" t="n">
-        <v>2086058.1341</v>
+        <v>1940695.398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5730066666666666</v>
+        <v>-74644999.1653</v>
       </c>
       <c r="H2" t="n">
-        <v>0.572496666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5698</v>
+        <v>0.5748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5698</v>
+        <v>0.5748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5698</v>
+        <v>0.5748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5698</v>
+        <v>0.5748</v>
       </c>
       <c r="F3" t="n">
-        <v>1483099.4359</v>
+        <v>2121982.3327</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5727533333333332</v>
+        <v>-72523016.8326</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5725233333333336</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.574</v>
+        <v>0.5758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.574</v>
+        <v>0.5758</v>
       </c>
       <c r="D4" t="n">
-        <v>0.574</v>
+        <v>0.5758</v>
       </c>
       <c r="E4" t="n">
-        <v>0.574</v>
+        <v>0.5758</v>
       </c>
       <c r="F4" t="n">
-        <v>13416.6004</v>
+        <v>936.4915999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5724466666666665</v>
+        <v>-72522080.34099999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5724883333333337</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5716</v>
+        <v>0.5758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5716</v>
+        <v>0.5786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5716</v>
+        <v>0.5786</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5716</v>
+        <v>0.5758</v>
       </c>
       <c r="F5" t="n">
-        <v>1316517.3615</v>
+        <v>159311.0012862772</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5724199999999999</v>
+        <v>-72362769.33971371</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5725333333333337</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.569</v>
+        <v>0.5659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.569</v>
+        <v>0.5659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.569</v>
+        <v>0.5659</v>
       </c>
       <c r="E6" t="n">
-        <v>0.569</v>
+        <v>0.5659</v>
       </c>
       <c r="F6" t="n">
-        <v>768916.4237</v>
+        <v>1420099.8618</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5719866666666668</v>
+        <v>-73782869.20151371</v>
       </c>
       <c r="H6" t="n">
-        <v>0.572566666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5713</v>
+        <v>0.5786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5713</v>
+        <v>0.5786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5713</v>
+        <v>0.5786</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5713</v>
+        <v>0.5786</v>
       </c>
       <c r="F7" t="n">
-        <v>2532566.0477</v>
+        <v>1076.418</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5715133333333334</v>
+        <v>-73781792.78351371</v>
       </c>
       <c r="H7" t="n">
-        <v>0.572661666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5684</v>
+        <v>0.5697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5684</v>
+        <v>0.5786</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5684</v>
+        <v>0.5786</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5684</v>
+        <v>0.5697</v>
       </c>
       <c r="F8" t="n">
-        <v>1592531.1107</v>
+        <v>1062608.7469</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5710666666666668</v>
+        <v>-73781792.78351371</v>
       </c>
       <c r="H8" t="n">
-        <v>0.572686666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.574</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.574</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.574</v>
       </c>
       <c r="F9" t="n">
-        <v>2421680.6474</v>
+        <v>2442568.5071</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5711066666666669</v>
+        <v>-76224361.29061371</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5726866666666671</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5682</v>
+        <v>0.5786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5682</v>
+        <v>0.5786</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5682</v>
+        <v>0.5786</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5682</v>
+        <v>0.5786</v>
       </c>
       <c r="F10" t="n">
-        <v>2574759.4589</v>
+        <v>889.8812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5704800000000001</v>
+        <v>-76223471.40941371</v>
       </c>
       <c r="H10" t="n">
-        <v>0.572716666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.572</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.572</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.572</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.572</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>2696564.58</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5704133333333333</v>
+        <v>-78920035.98941371</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5728333333333337</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="F12" t="n">
-        <v>746144.2441</v>
+        <v>876.5719</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5706066666666667</v>
+        <v>-78919159.41751371</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5728550000000004</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5704</v>
+        <v>0.5672</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5704</v>
+        <v>0.5672</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5704</v>
+        <v>0.5672</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5704</v>
+        <v>0.5672</v>
       </c>
       <c r="F13" t="n">
-        <v>2164166.1966</v>
+        <v>2536124.0826</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5705600000000001</v>
+        <v>-81455283.50011371</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5728250000000004</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5712</v>
+        <v>0.5786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5712</v>
+        <v>0.5786</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5712</v>
+        <v>0.5786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5712</v>
+        <v>0.5786</v>
       </c>
       <c r="F14" t="n">
-        <v>873370.9807</v>
+        <v>902.9767000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.57082</v>
+        <v>-81454380.52341372</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5728216666666671</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5707</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5707</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5707</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5707</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>2184744.5416</v>
+        <v>2937348.8968</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5707066666666667</v>
+        <v>-84391729.42021371</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5729150000000004</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="F16" t="n">
-        <v>213233</v>
+        <v>882.8774</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5701733333333333</v>
+        <v>-84390846.54281372</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5727816666666672</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5672</v>
+        <v>0.5736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5672</v>
+        <v>0.5736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5672</v>
+        <v>0.5736</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5672</v>
+        <v>0.5736</v>
       </c>
       <c r="F17" t="n">
-        <v>55714.3048</v>
+        <v>1034104.3157</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5701533333333333</v>
+        <v>-85424950.85851371</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5727166666666671</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5672</v>
+        <v>0.5786</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5672</v>
+        <v>0.5786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5672</v>
+        <v>0.5786</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5672</v>
+        <v>0.5786</v>
       </c>
       <c r="F18" t="n">
-        <v>5113.9402</v>
+        <v>899.7709</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5699799999999998</v>
+        <v>-85424051.08761372</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5726466666666672</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5671</v>
+        <v>0.572</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5659</v>
+        <v>0.572</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5671</v>
+        <v>0.572</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5659</v>
+        <v>0.572</v>
       </c>
       <c r="F19" t="n">
-        <v>2103768</v>
+        <v>2933414.3933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5694399999999998</v>
+        <v>-88357465.48091371</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5725116666666672</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5659</v>
+        <v>0.5755</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5659</v>
+        <v>0.5755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5659</v>
+        <v>0.5755</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5659</v>
+        <v>0.5755</v>
       </c>
       <c r="F20" t="n">
-        <v>2853151.3382</v>
+        <v>2218995.5165</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5690599999999998</v>
+        <v>-86138469.96441372</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5723633333333338</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5665</v>
+        <v>0.5784</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5665</v>
+        <v>0.5784</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5665</v>
+        <v>0.5784</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5665</v>
+        <v>0.5784</v>
       </c>
       <c r="F21" t="n">
-        <v>986360.3958000001</v>
+        <v>875.2246</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5688933333333331</v>
+        <v>-86137594.73981372</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5722133333333338</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5672</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5672</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5672</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5672</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>938.9132</v>
+        <v>2689131.3228</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5686199999999997</v>
+        <v>-88826726.06261371</v>
       </c>
       <c r="H22" t="n">
-        <v>0.572161666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5661</v>
+        <v>0.5695</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5661</v>
+        <v>0.5695</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5661</v>
+        <v>0.5695</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5661</v>
+        <v>0.5695</v>
       </c>
       <c r="F23" t="n">
-        <v>1729867.2377</v>
+        <v>2626835.6438</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5684666666666663</v>
+        <v>-91453561.70641372</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5720350000000003</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5672</v>
+        <v>0.5776</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5672</v>
+        <v>0.5776</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5672</v>
+        <v>0.5776</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5672</v>
+        <v>0.5776</v>
       </c>
       <c r="F24" t="n">
-        <v>915.2190000000001</v>
+        <v>900.9988</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5682733333333331</v>
+        <v>-91452660.70761372</v>
       </c>
       <c r="H24" t="n">
-        <v>0.571946666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5666</v>
+        <v>0.573</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5666</v>
+        <v>0.573</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5666</v>
+        <v>0.573</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5666</v>
+        <v>0.573</v>
       </c>
       <c r="F25" t="n">
-        <v>2231643.9681</v>
+        <v>2097176.141</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5681666666666663</v>
+        <v>-93549836.84861372</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5718466666666671</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5672</v>
+        <v>0.5682</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5672</v>
+        <v>0.5682</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5672</v>
+        <v>0.5682</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5672</v>
+        <v>0.5682</v>
       </c>
       <c r="F26" t="n">
-        <v>900.354</v>
+        <v>2846661.287</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5678466666666663</v>
+        <v>-96396498.13561372</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5717800000000004</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5665</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5665</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5665</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5665</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>1845194.3445</v>
+        <v>1478061.6231</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5675399999999996</v>
+        <v>-94918436.51251373</v>
       </c>
       <c r="H27" t="n">
-        <v>0.571716666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5668</v>
+        <v>0.5673</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5668</v>
+        <v>0.5673</v>
       </c>
       <c r="F28" t="n">
-        <v>2224603.2829</v>
+        <v>2969492.375</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5672999999999997</v>
+        <v>-97887928.88751373</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5715633333333336</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5672</v>
+        <v>0.5724</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5672</v>
+        <v>0.5724</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5672</v>
+        <v>0.5724</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5672</v>
+        <v>0.5724</v>
       </c>
       <c r="F29" t="n">
-        <v>1054.6799</v>
+        <v>3093601.7985</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5670333333333331</v>
+        <v>-94794327.08901373</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5714600000000003</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5661</v>
+        <v>0.5753</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5661</v>
+        <v>0.5753</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5661</v>
+        <v>0.5753</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5661</v>
+        <v>0.5753</v>
       </c>
       <c r="F30" t="n">
-        <v>2888256.4699</v>
+        <v>902.7336</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5667266666666664</v>
+        <v>-94793424.35541372</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5714100000000003</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5662</v>
+        <v>0.5675</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5662</v>
+        <v>0.5675</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5662</v>
+        <v>0.5675</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5662</v>
+        <v>0.5675</v>
       </c>
       <c r="F31" t="n">
-        <v>664499.9236</v>
+        <v>2086058.1341</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5666533333333331</v>
+        <v>-96879482.48951373</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5713483333333337</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5672</v>
+        <v>0.5698</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5672</v>
+        <v>0.5698</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5672</v>
+        <v>0.5698</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5672</v>
+        <v>0.5698</v>
       </c>
       <c r="F32" t="n">
-        <v>905.8119</v>
+        <v>1483099.4359</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5666533333333331</v>
+        <v>-95396383.05361372</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5712050000000004</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="F33" t="n">
-        <v>1918350.1292</v>
+        <v>13416.6004</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5665733333333332</v>
+        <v>-95382966.45321372</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5711050000000004</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5667</v>
+        <v>0.5716</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5667</v>
+        <v>0.5716</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5667</v>
+        <v>0.5716</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5667</v>
+        <v>0.5716</v>
       </c>
       <c r="F34" t="n">
-        <v>999840.4379</v>
+        <v>1316517.3615</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5666266666666665</v>
+        <v>-96699483.81471372</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5709700000000003</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5662</v>
+        <v>0.569</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5662</v>
+        <v>0.569</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5662</v>
+        <v>0.569</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5662</v>
+        <v>0.569</v>
       </c>
       <c r="F35" t="n">
-        <v>1331437.2943</v>
+        <v>768916.4237</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5666466666666666</v>
+        <v>-97468400.23841372</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5708100000000003</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5659</v>
+        <v>0.5713</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5713</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5659</v>
+        <v>0.5713</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5713</v>
       </c>
       <c r="F36" t="n">
-        <v>1125221.0671</v>
+        <v>2532566.0477</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5665466666666666</v>
+        <v>-94935834.19071372</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5705833333333336</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5672</v>
+        <v>0.5684</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5672</v>
+        <v>0.5684</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5672</v>
+        <v>0.5684</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5672</v>
+        <v>0.5684</v>
       </c>
       <c r="F37" t="n">
-        <v>905.7688000000001</v>
+        <v>1592531.1107</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5665466666666666</v>
+        <v>-96528365.30141371</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5706050000000003</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5664</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5664</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5664</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5664</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1533831.1892</v>
+        <v>2421680.6474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5665666666666666</v>
+        <v>-94106684.65401371</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5704016666666669</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5668</v>
+        <v>0.5682</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5668</v>
+        <v>0.5682</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5668</v>
+        <v>0.5682</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5668</v>
+        <v>0.5682</v>
       </c>
       <c r="F39" t="n">
-        <v>1257977.8634</v>
+        <v>2574759.4589</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5665399999999999</v>
+        <v>-96681444.11291371</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5702050000000002</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5672</v>
+        <v>0.572</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5672</v>
+        <v>0.572</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5672</v>
+        <v>0.572</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5672</v>
+        <v>0.572</v>
       </c>
       <c r="F40" t="n">
-        <v>927.7915</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="n">
-        <v>0.56658</v>
+        <v>-96671444.11291371</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5700916666666669</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5666</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5666</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5666</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5666</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>798226.9229</v>
+        <v>746144.2441</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5665399999999999</v>
+        <v>-97417588.35701372</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5698916666666669</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5672</v>
+        <v>0.5704</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5672</v>
+        <v>0.5704</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5672</v>
+        <v>0.5704</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5672</v>
+        <v>0.5704</v>
       </c>
       <c r="F42" t="n">
-        <v>881.9277</v>
+        <v>2164166.1966</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5665866666666666</v>
+        <v>-99581754.55361372</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5697433333333336</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5712</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5712</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5712</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5712</v>
       </c>
       <c r="F43" t="n">
-        <v>1632211.22</v>
+        <v>873370.9807</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5664666666666666</v>
+        <v>-98708383.57291372</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5695166666666669</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5672</v>
+        <v>0.5707</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5672</v>
+        <v>0.5707</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5672</v>
+        <v>0.5707</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5672</v>
+        <v>0.5707</v>
       </c>
       <c r="F44" t="n">
-        <v>892.1420000000001</v>
+        <v>2184744.5416</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5664666666666666</v>
+        <v>-100893128.1145137</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5695166666666669</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5662</v>
+        <v>0.5673</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5662</v>
+        <v>0.5673</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5662</v>
+        <v>0.5673</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5662</v>
+        <v>0.5673</v>
       </c>
       <c r="F45" t="n">
-        <v>1100615.4606</v>
+        <v>213233</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5664733333333332</v>
+        <v>-101106361.1145137</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5693100000000002</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,24 +1985,21 @@
         <v>0.5672</v>
       </c>
       <c r="F46" t="n">
-        <v>943.2114</v>
+        <v>55714.3048</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5665399999999998</v>
+        <v>-101162075.4193137</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5692783333333336</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5669</v>
+        <v>0.5672</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5669</v>
+        <v>0.5672</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5669</v>
+        <v>0.5672</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5669</v>
+        <v>0.5672</v>
       </c>
       <c r="F47" t="n">
-        <v>2856111.3577</v>
+        <v>5113.9402</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5665199999999999</v>
+        <v>-101162075.4193137</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5690833333333335</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5664</v>
+        <v>0.5671</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5664</v>
+        <v>0.5659</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5664</v>
+        <v>0.5671</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5664</v>
+        <v>0.5659</v>
       </c>
       <c r="F48" t="n">
-        <v>1508711.3387</v>
+        <v>2103768</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5665466666666664</v>
+        <v>-103265843.4193137</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5689633333333336</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,24 +2090,21 @@
         <v>0.5659</v>
       </c>
       <c r="F49" t="n">
-        <v>747012.291</v>
+        <v>2853151.3382</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5664933333333331</v>
+        <v>-103265843.4193137</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5687516666666669</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5665</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5665</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5665</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5665</v>
       </c>
       <c r="F50" t="n">
-        <v>1492772.0915</v>
+        <v>986360.3958000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5664799999999998</v>
+        <v>-102279483.0235137</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5686516666666669</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5651</v>
+        <v>0.5672</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5651</v>
+        <v>0.5672</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5651</v>
+        <v>0.5672</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5651</v>
+        <v>0.5672</v>
       </c>
       <c r="F51" t="n">
-        <v>1058845.7051</v>
+        <v>938.9132</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5664866666666664</v>
+        <v>-102278544.1103137</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5684783333333335</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5672</v>
+        <v>0.5661</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5672</v>
+        <v>0.5661</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5672</v>
+        <v>0.5661</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5672</v>
+        <v>0.5661</v>
       </c>
       <c r="F52" t="n">
-        <v>1039.0921</v>
+        <v>1729867.2377</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5664866666666664</v>
+        <v>-104008411.3480137</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5682916666666669</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,24 +2230,21 @@
         <v>0.5672</v>
       </c>
       <c r="F53" t="n">
-        <v>593685.7971</v>
+        <v>915.2190000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5665399999999997</v>
+        <v>-104007496.1290137</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5681600000000002</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5673</v>
+        <v>0.5666</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5673</v>
+        <v>0.5666</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5673</v>
+        <v>0.5666</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5673</v>
+        <v>0.5666</v>
       </c>
       <c r="F54" t="n">
-        <v>987.0933</v>
+        <v>2231643.9681</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5665733333333329</v>
+        <v>-106239140.0971137</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5681233333333336</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2455,33 +2291,30 @@
         <v>0.5672</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="D55" t="n">
         <v>0.5672</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="F55" t="n">
-        <v>974061</v>
+        <v>900.354</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5664266666666663</v>
+        <v>-106238239.7431137</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5679133333333336</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5673</v>
+        <v>0.5665</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5673</v>
+        <v>0.5665</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5673</v>
+        <v>0.5665</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5585</v>
+        <v>0.5665</v>
       </c>
       <c r="F56" t="n">
-        <v>42257.9468</v>
+        <v>1845194.3445</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5664733333333329</v>
+        <v>-108083434.0876137</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5678183333333336</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5602</v>
+        <v>0.5672</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5602</v>
+        <v>0.5668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5602</v>
+        <v>0.5672</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5602</v>
+        <v>0.5668</v>
       </c>
       <c r="F57" t="n">
-        <v>1023462.444</v>
+        <v>2224603.2829</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5660066666666663</v>
+        <v>-105858830.8047137</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5676850000000004</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="F58" t="n">
-        <v>985.0281</v>
+        <v>1054.6799</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5661599999999997</v>
+        <v>-105857776.1248137</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5676216666666671</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,42 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5673</v>
+        <v>0.5661</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5618</v>
+        <v>0.5661</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5673</v>
+        <v>0.5661</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5618</v>
+        <v>0.5661</v>
       </c>
       <c r="F59" t="n">
-        <v>1397220.081330231</v>
+        <v>2888256.4699</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5657999999999996</v>
+        <v>-108746032.5947137</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5675300000000003</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.5673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2648,40 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5662</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5662</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5662</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5662</v>
       </c>
       <c r="F60" t="n">
-        <v>2668379.5018</v>
+        <v>664499.9236</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5653199999999996</v>
+        <v>-108081532.6711137</v>
       </c>
       <c r="H60" t="n">
-        <v>0.567306666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,42 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5585</v>
+        <v>0.5672</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5585</v>
+        <v>0.5672</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5585</v>
+        <v>0.5672</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5585</v>
+        <v>0.5672</v>
       </c>
       <c r="F61" t="n">
-        <v>159311.0012</v>
+        <v>905.8119</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5647399999999997</v>
+        <v>-108080626.8592137</v>
       </c>
       <c r="H61" t="n">
-        <v>0.567026666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.5590000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,42 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5669</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5669</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5669</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5669</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>2502283.4717</v>
+        <v>1918350.1292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5647399999999997</v>
+        <v>-109998976.9884137</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5670166666666669</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.5585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,42 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5672</v>
+        <v>0.5667</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5672</v>
+        <v>0.5667</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5672</v>
+        <v>0.5667</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5672</v>
+        <v>0.5667</v>
       </c>
       <c r="F63" t="n">
-        <v>889.1733</v>
+        <v>999840.4379</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5647933333333329</v>
+        <v>-108999136.5505137</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5669733333333336</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.5669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,40 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5657</v>
+        <v>0.5662</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5657</v>
+        <v>0.5662</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5657</v>
+        <v>0.5662</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5657</v>
+        <v>0.5662</v>
       </c>
       <c r="F64" t="n">
-        <v>2814609.8696</v>
+        <v>1331437.2943</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5647799999999996</v>
+        <v>-110330573.8448137</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5668350000000003</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,42 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5614</v>
+        <v>0.5659</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5614</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5614</v>
+        <v>0.5659</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5614</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>1951467.9845</v>
+        <v>1125221.0671</v>
       </c>
       <c r="G65" t="n">
-        <v>0.564473333333333</v>
+        <v>-111455794.9119137</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5666650000000003</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.5657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,30 +2685,21 @@
         <v>0.5672</v>
       </c>
       <c r="F66" t="n">
-        <v>891.7172</v>
+        <v>905.7688000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5646133333333331</v>
+        <v>-111454889.1431137</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5666350000000002</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.5614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,42 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5584</v>
+        <v>0.5664</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5584</v>
+        <v>0.5664</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5584</v>
+        <v>0.5664</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5584</v>
+        <v>0.5664</v>
       </c>
       <c r="F67" t="n">
-        <v>898</v>
+        <v>1533831.1892</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5640266666666665</v>
+        <v>-112988720.3323137</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5664200000000003</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.5672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,42 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="F68" t="n">
-        <v>908.9714</v>
+        <v>1257977.8634</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5640266666666665</v>
+        <v>-111730742.4689137</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5664000000000002</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.5584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,42 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="F69" t="n">
-        <v>3083651.5201</v>
+        <v>927.7915</v>
       </c>
       <c r="G69" t="n">
-        <v>0.563573333333333</v>
+        <v>-111729814.6774137</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5662400000000003</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.5672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,42 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5672</v>
+        <v>0.5666</v>
       </c>
       <c r="F70" t="n">
-        <v>969.002</v>
+        <v>798226.9229</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5637199999999998</v>
+        <v>-112528041.6003137</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5662233333333336</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.5605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,40 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="F71" t="n">
-        <v>1619219.9416</v>
+        <v>881.9277</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5635599999999997</v>
+        <v>-112527159.6726137</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5661050000000003</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3170,40 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>892.7944</v>
+        <v>1632211.22</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5640266666666665</v>
+        <v>-114159370.8926137</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5660400000000003</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,40 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="F73" t="n">
-        <v>3159617.7344</v>
+        <v>892.1420000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5637799999999997</v>
+        <v>-114158478.7506137</v>
       </c>
       <c r="H73" t="n">
-        <v>0.565926666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,40 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5672</v>
+        <v>0.5662</v>
       </c>
       <c r="F74" t="n">
-        <v>1928.305</v>
+        <v>1100615.4606</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5641399999999998</v>
+        <v>-115259094.2112137</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5658600000000004</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,40 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5592</v>
+        <v>0.5672</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5592</v>
+        <v>0.5672</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5592</v>
+        <v>0.5672</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5592</v>
+        <v>0.5672</v>
       </c>
       <c r="F75" t="n">
-        <v>944964.6279</v>
+        <v>943.2114</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5641533333333332</v>
+        <v>-115258150.9998137</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5656683333333336</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,40 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5672</v>
+        <v>0.5669</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5672</v>
+        <v>0.5669</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5672</v>
+        <v>0.5669</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5672</v>
+        <v>0.5669</v>
       </c>
       <c r="F76" t="n">
-        <v>892.3539</v>
+        <v>2856111.3577</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5647333333333331</v>
+        <v>-118114262.3575137</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5656666666666669</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,40 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5672</v>
+        <v>0.5664</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5672</v>
+        <v>0.5664</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5672</v>
+        <v>0.5664</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5672</v>
+        <v>0.5664</v>
       </c>
       <c r="F77" t="n">
-        <v>967.8976</v>
+        <v>1508711.3387</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5647533333333331</v>
+        <v>-119622973.6962137</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5656666666666669</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,40 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5606</v>
+        <v>0.5659</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5606</v>
+        <v>0.5659</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5606</v>
+        <v>0.5659</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5606</v>
+        <v>0.5659</v>
       </c>
       <c r="F78" t="n">
-        <v>2116211.6014</v>
+        <v>747012.291</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5643133333333331</v>
+        <v>-120369985.9872137</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5655566666666669</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,40 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5584</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5584</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5584</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5584</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>2703238.1488</v>
+        <v>1492772.0915</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5638266666666666</v>
+        <v>-118877213.8957137</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5654316666666669</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,40 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5672</v>
+        <v>0.5651</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5651</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5672</v>
+        <v>0.5651</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5651</v>
       </c>
       <c r="F80" t="n">
-        <v>1574276.4346</v>
+        <v>1058845.7051</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5641999999999998</v>
+        <v>-119936059.6008137</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5654500000000002</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,40 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="F81" t="n">
-        <v>2673553.1206</v>
+        <v>1039.0921</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5639733333333332</v>
+        <v>-119935020.5087137</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5654050000000003</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,40 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="F82" t="n">
-        <v>1383811.725</v>
+        <v>593685.7971</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5643333333333332</v>
+        <v>-119935020.5087137</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5653483333333337</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,40 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5632</v>
+        <v>0.5673</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5632</v>
+        <v>0.5673</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5632</v>
+        <v>0.5673</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5632</v>
+        <v>0.5673</v>
       </c>
       <c r="F83" t="n">
-        <v>1883801.904</v>
+        <v>987.0933</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5640666666666666</v>
+        <v>-119934033.4154137</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5653000000000004</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3674,42 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5616</v>
+        <v>0.5672</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5616</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5616</v>
+        <v>0.5672</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5616</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>1500313.1546</v>
+        <v>974061</v>
       </c>
       <c r="G84" t="n">
-        <v>0.56414</v>
+        <v>-120908094.4154137</v>
       </c>
       <c r="H84" t="n">
-        <v>0.565206666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.5632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,42 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5659</v>
+        <v>0.5673</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5659</v>
+        <v>0.5585</v>
       </c>
       <c r="F85" t="n">
-        <v>1039914.2796</v>
+        <v>42257.9468</v>
       </c>
       <c r="G85" t="n">
-        <v>0.56414</v>
+        <v>-120865836.4686137</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5652166666666669</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.5616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,42 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5633</v>
+        <v>0.5602</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5633</v>
+        <v>0.5602</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5633</v>
+        <v>0.5602</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5633</v>
+        <v>0.5602</v>
       </c>
       <c r="F86" t="n">
-        <v>2239146.5979</v>
+        <v>1023462.444</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5640333333333333</v>
+        <v>-121889298.9126137</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5651516666666669</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.5672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3806,40 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="F87" t="n">
-        <v>2628581.8417</v>
+        <v>985.0281</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5636733333333334</v>
+        <v>-121888313.8845137</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5650733333333336</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,40 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5639</v>
+        <v>0.5673</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5639</v>
+        <v>0.5618</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5639</v>
+        <v>0.5673</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5639</v>
+        <v>0.5618</v>
       </c>
       <c r="F88" t="n">
-        <v>2581633.1826</v>
+        <v>1397220.081330231</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5636933333333334</v>
+        <v>-123285533.9658439</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5650250000000002</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,40 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5643</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5643</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5643</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5643</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>1455956.5866</v>
+        <v>2668379.5018</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5635</v>
+        <v>-125953913.4676439</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5649766666666669</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,40 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5631</v>
+        <v>0.5585</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5631</v>
+        <v>0.5585</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5631</v>
+        <v>0.5585</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5631</v>
+        <v>0.5585</v>
       </c>
       <c r="F90" t="n">
-        <v>1641683.8122</v>
+        <v>159311.0012</v>
       </c>
       <c r="G90" t="n">
-        <v>0.56376</v>
+        <v>-126113224.468844</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5649266666666669</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,40 +3548,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2502283.4717</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-123610940.997144</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>0.5585</v>
       </c>
-      <c r="C91" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="K91" t="n">
         <v>0.5585</v>
       </c>
-      <c r="E91" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="F91" t="n">
-        <v>11079217.8231</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.5631733333333334</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.5647966666666668</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,40 +3587,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5611</v>
+        <v>0.5672</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5611</v>
+        <v>0.5672</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5611</v>
+        <v>0.5672</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5611</v>
+        <v>0.5672</v>
       </c>
       <c r="F92" t="n">
-        <v>3137474.3015</v>
+        <v>889.1733</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5627666666666667</v>
+        <v>-123610051.823844</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5646950000000003</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
+        <v>0.5669</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,40 +3630,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5638</v>
+        <v>0.5657</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5638</v>
+        <v>0.5657</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5638</v>
+        <v>0.5657</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5638</v>
+        <v>0.5657</v>
       </c>
       <c r="F93" t="n">
-        <v>2293823.3311</v>
+        <v>2814609.8696</v>
       </c>
       <c r="G93" t="n">
-        <v>0.56298</v>
+        <v>-126424661.693444</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5646583333333336</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
+        <v>0.5672</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,40 +3673,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5583</v>
+        <v>0.5614</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5583</v>
+        <v>0.5614</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5583</v>
+        <v>0.5614</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5583</v>
+        <v>0.5614</v>
       </c>
       <c r="F94" t="n">
-        <v>106281.0181</v>
+        <v>1951467.9845</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5629733333333333</v>
+        <v>-128376129.677944</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5645183333333337</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,28 +3720,21 @@
         <v>0.5672</v>
       </c>
       <c r="F95" t="n">
-        <v>959.4068</v>
+        <v>891.7172</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5629866666666666</v>
+        <v>-128375237.960744</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5645350000000003</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,40 +3743,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5586</v>
+        <v>0.5584</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5586</v>
+        <v>0.5584</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5586</v>
+        <v>0.5584</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5586</v>
+        <v>0.5584</v>
       </c>
       <c r="F96" t="n">
-        <v>1491094.7959</v>
+        <v>898</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5626399999999999</v>
+        <v>-128376135.960744</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5644283333333336</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,40 +3778,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5626</v>
+        <v>0.5672</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5626</v>
+        <v>0.5672</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5626</v>
+        <v>0.5672</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5626</v>
+        <v>0.5672</v>
       </c>
       <c r="F97" t="n">
-        <v>1408195.252</v>
+        <v>908.9714</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5625599999999998</v>
+        <v>-128375226.989344</v>
       </c>
       <c r="H97" t="n">
-        <v>0.564351666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,40 +3813,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5605</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5605</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5605</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5605</v>
       </c>
       <c r="F98" t="n">
-        <v>1279576.4135</v>
+        <v>3083651.5201</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5623466666666666</v>
+        <v>-131458878.509444</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5642450000000003</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,40 +3848,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5596</v>
+        <v>0.5672</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5583</v>
+        <v>0.5672</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5596</v>
+        <v>0.5672</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5583</v>
+        <v>0.5672</v>
       </c>
       <c r="F99" t="n">
-        <v>1019395.1535</v>
+        <v>969.002</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5621266666666664</v>
+        <v>-131457909.507444</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5641033333333337</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,40 +3883,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5644</v>
+        <v>0.5649</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5644</v>
+        <v>0.5649</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5644</v>
+        <v>0.5649</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5644</v>
+        <v>0.5649</v>
       </c>
       <c r="F100" t="n">
-        <v>1905734.259</v>
+        <v>1619219.9416</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5619399999999999</v>
+        <v>-133077129.449044</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5640566666666671</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,40 +3918,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5671</v>
+        <v>0.5672</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5671</v>
+        <v>0.5672</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5671</v>
+        <v>0.5672</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5671</v>
+        <v>0.5672</v>
       </c>
       <c r="F101" t="n">
-        <v>1245238.5939</v>
+        <v>892.7944</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5621933333333332</v>
+        <v>-133076236.654644</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5640650000000005</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>0.5649</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.5649</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,40 +3957,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5594</v>
+        <v>0.5636</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5594</v>
+        <v>0.5636</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5594</v>
+        <v>0.5636</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5594</v>
+        <v>0.5636</v>
       </c>
       <c r="F102" t="n">
-        <v>3144760.7375</v>
+        <v>3159617.7344</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5620333333333333</v>
+        <v>-136235854.389044</v>
       </c>
       <c r="H102" t="n">
-        <v>0.5639350000000004</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0.5649</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,40 +3998,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5607</v>
+        <v>0.5672</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5607</v>
+        <v>0.5672</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5607</v>
+        <v>0.5672</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5607</v>
+        <v>0.5672</v>
       </c>
       <c r="F103" t="n">
-        <v>3135234.8799</v>
+        <v>1928.305</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5618199999999999</v>
+        <v>-136233926.0840439</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5638633333333337</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
+        <v>0.5636</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.5649</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,40 +4041,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5658</v>
+        <v>0.5592</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5658</v>
+        <v>0.5592</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5658</v>
+        <v>0.5592</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5658</v>
+        <v>0.5592</v>
       </c>
       <c r="F104" t="n">
-        <v>1899256.6822</v>
+        <v>944964.6279</v>
       </c>
       <c r="G104" t="n">
-        <v>0.56192</v>
+        <v>-137178890.711944</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5638400000000005</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+        <v>0.5672</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.5672</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,40 +4080,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="F105" t="n">
-        <v>842714.9939</v>
+        <v>892.3539</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5617799999999999</v>
+        <v>-137177998.358044</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5637533333333338</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,40 +4121,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5666</v>
+        <v>0.5672</v>
       </c>
       <c r="F106" t="n">
-        <v>1613977.6309</v>
+        <v>967.8976</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5623266666666665</v>
+        <v>-137177998.358044</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5637433333333337</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
+        <v>0.5672</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4646,40 +4164,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5636</v>
+        <v>0.5606</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5636</v>
+        <v>0.5606</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5636</v>
+        <v>0.5606</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5636</v>
+        <v>0.5606</v>
       </c>
       <c r="F107" t="n">
-        <v>2904327.457</v>
+        <v>2116211.6014</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5624933333333331</v>
+        <v>-139294209.959444</v>
       </c>
       <c r="H107" t="n">
-        <v>0.5636883333333338</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,40 +4199,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5616</v>
+        <v>0.5584</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5616</v>
+        <v>0.5584</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5616</v>
+        <v>0.5584</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5616</v>
+        <v>0.5584</v>
       </c>
       <c r="F108" t="n">
-        <v>2061121.0201</v>
+        <v>2703238.1488</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5623466666666664</v>
+        <v>-141997448.1082439</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5636083333333338</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4733,37 +4237,30 @@
         <v>0.5672</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5596</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D109" t="n">
         <v>0.5672</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5596</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>2178200.1934</v>
+        <v>1574276.4346</v>
       </c>
       <c r="G109" t="n">
-        <v>0.562433333333333</v>
+        <v>-140423171.6736439</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5635033333333338</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,40 +4269,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5572</v>
+        <v>0.5638</v>
       </c>
       <c r="F110" t="n">
-        <v>694085.3107</v>
+        <v>2673553.1206</v>
       </c>
       <c r="G110" t="n">
-        <v>0.562433333333333</v>
+        <v>-143096724.7942439</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5635233333333338</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,40 +4304,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="F111" t="n">
-        <v>1237.729</v>
+        <v>1383811.725</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5630066666666663</v>
+        <v>-143096724.7942439</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5635583333333337</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,40 +4339,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5603</v>
+        <v>0.5632</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5603</v>
+        <v>0.5632</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5603</v>
+        <v>0.5632</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5603</v>
+        <v>0.5632</v>
       </c>
       <c r="F112" t="n">
-        <v>1744179.03</v>
+        <v>1883801.904</v>
       </c>
       <c r="G112" t="n">
-        <v>0.562853333333333</v>
+        <v>-144980526.6982439</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5634433333333337</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,40 +4374,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="F113" t="n">
-        <v>934.4586</v>
+        <v>1500313.1546</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5633333333333329</v>
+        <v>-146480839.8528439</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5634433333333337</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+        <v>0.5632</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.5632</v>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,40 +4413,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5622</v>
+        <v>0.5659</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5622</v>
+        <v>0.5672</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5622</v>
+        <v>0.5672</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5622</v>
+        <v>0.5659</v>
       </c>
       <c r="F114" t="n">
-        <v>1025244.9355</v>
+        <v>1039914.2796</v>
       </c>
       <c r="G114" t="n">
-        <v>0.5635933333333329</v>
+        <v>-145440925.5732439</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5633583333333336</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,40 +4454,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5672</v>
+        <v>0.5633</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5672</v>
+        <v>0.5633</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5672</v>
+        <v>0.5633</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5672</v>
+        <v>0.5633</v>
       </c>
       <c r="F115" t="n">
-        <v>929.0683</v>
+        <v>2239146.5979</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5637799999999996</v>
+        <v>-147680072.1711439</v>
       </c>
       <c r="H115" t="n">
-        <v>0.5633950000000003</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
+        <v>0.5672</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,40 +4497,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5621</v>
+        <v>0.5618</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5621</v>
+        <v>0.5618</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5621</v>
+        <v>0.5618</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5621</v>
+        <v>0.5618</v>
       </c>
       <c r="F116" t="n">
-        <v>1200768.4791</v>
+        <v>2628581.8417</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5634466666666663</v>
+        <v>-150308654.0128439</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5633083333333336</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,40 +4532,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5583</v>
+        <v>0.5639</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5583</v>
+        <v>0.5639</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5583</v>
+        <v>0.5639</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5583</v>
+        <v>0.5639</v>
       </c>
       <c r="F117" t="n">
-        <v>1384995.0944</v>
+        <v>2581633.1826</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5633733333333329</v>
+        <v>-147727020.8302439</v>
       </c>
       <c r="H117" t="n">
-        <v>0.563276666666667</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+        <v>0.5618</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.5618</v>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5108,40 +4571,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5575</v>
+        <v>0.5643</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5575</v>
+        <v>0.5643</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5575</v>
+        <v>0.5643</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5575</v>
+        <v>0.5643</v>
       </c>
       <c r="F118" t="n">
-        <v>707302.4126</v>
+        <v>1455956.5866</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5631599999999995</v>
+        <v>-146271064.2436439</v>
       </c>
       <c r="H118" t="n">
-        <v>0.5631133333333336</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,40 +4612,1054 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1641683.8122</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-147912748.0558439</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="F120" t="n">
+        <v>11079217.8231</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-158991965.8789439</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3137474.3015</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-155854491.577444</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2293823.3311</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-153560668.246344</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="F123" t="n">
+        <v>106281.0181</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-153666949.264444</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F124" t="n">
+        <v>959.4068</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-153665989.857644</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5586</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5586</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5586</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5586</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1491094.7959</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-155157084.6535439</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5626</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5626</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5626</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5626</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1408195.252</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-153748889.4015439</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1279576.4135</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-155028465.815044</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1019395.1535</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-156047860.9685439</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1905734.259</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-154142126.7095439</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1245238.5939</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-152896888.1156439</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3144760.7375</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-156041648.853144</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3135234.8799</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-152906413.973244</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1899256.6822</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-151007157.2910439</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>842714.9939</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-151849872.2849439</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1613977.6309</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-150235894.6540439</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2904327.457</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-153140222.1110439</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2061121.0201</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-155201343.1311439</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2178200.1934</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-157379543.3245439</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="F139" t="n">
+        <v>694085.3107</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-156685458.0138439</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1237.729</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-156685458.0138439</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1744179.03</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-158429637.0438439</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F142" t="n">
+        <v>934.4586</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-158428702.5852439</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1025244.9355</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-159453947.5207439</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F144" t="n">
+        <v>929.0683</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-159453018.4524439</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1200768.4791</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-160653786.9315439</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1384995.0944</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-162038782.0259439</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="F147" t="n">
+        <v>707302.4126</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-162746084.4385439</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
         <v>0.5581</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C148" t="n">
         <v>0.5581</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D148" t="n">
         <v>0.5581</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E148" t="n">
         <v>0.5581</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F148" t="n">
         <v>2710971.4825</v>
       </c>
-      <c r="G119" t="n">
-        <v>0.5626466666666662</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.563051666666667</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="G148" t="n">
+        <v>-160035112.9560439</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.572</v>
+        <v>0.5707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.572</v>
+        <v>0.5707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.572</v>
+        <v>0.5707</v>
       </c>
       <c r="E2" t="n">
-        <v>0.572</v>
+        <v>0.5707</v>
       </c>
       <c r="F2" t="n">
-        <v>1940695.398</v>
+        <v>2184744.5416</v>
       </c>
       <c r="G2" t="n">
-        <v>-74644999.1653</v>
+        <v>-100893128.1145137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5748</v>
+        <v>0.5673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5748</v>
+        <v>0.5673</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5748</v>
+        <v>0.5673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5748</v>
+        <v>0.5673</v>
       </c>
       <c r="F3" t="n">
-        <v>2121982.3327</v>
+        <v>213233</v>
       </c>
       <c r="G3" t="n">
-        <v>-72523016.8326</v>
+        <v>-101106361.1145137</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5758</v>
+        <v>0.5672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5758</v>
+        <v>0.5672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5758</v>
+        <v>0.5672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5758</v>
+        <v>0.5672</v>
       </c>
       <c r="F4" t="n">
-        <v>936.4915999999999</v>
+        <v>55714.3048</v>
       </c>
       <c r="G4" t="n">
-        <v>-72522080.34099999</v>
+        <v>-101162075.4193137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5758</v>
+        <v>0.5672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5786</v>
+        <v>0.5672</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5786</v>
+        <v>0.5672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5758</v>
+        <v>0.5672</v>
       </c>
       <c r="F5" t="n">
-        <v>159311.0012862772</v>
+        <v>5113.9402</v>
       </c>
       <c r="G5" t="n">
-        <v>-72362769.33971371</v>
+        <v>-101162075.4193137</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5659</v>
+        <v>0.5671</v>
       </c>
       <c r="C6" t="n">
         <v>0.5659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5659</v>
+        <v>0.5671</v>
       </c>
       <c r="E6" t="n">
         <v>0.5659</v>
       </c>
       <c r="F6" t="n">
-        <v>1420099.8618</v>
+        <v>2103768</v>
       </c>
       <c r="G6" t="n">
-        <v>-73782869.20151371</v>
+        <v>-103265843.4193137</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5786</v>
+        <v>0.5659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5786</v>
+        <v>0.5659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5786</v>
+        <v>0.5659</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5786</v>
+        <v>0.5659</v>
       </c>
       <c r="F7" t="n">
-        <v>1076.418</v>
+        <v>2853151.3382</v>
       </c>
       <c r="G7" t="n">
-        <v>-73781792.78351371</v>
+        <v>-103265843.4193137</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5697</v>
+        <v>0.5665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5786</v>
+        <v>0.5665</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5786</v>
+        <v>0.5665</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5697</v>
+        <v>0.5665</v>
       </c>
       <c r="F8" t="n">
-        <v>1062608.7469</v>
+        <v>986360.3958000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-73781792.78351371</v>
+        <v>-102279483.0235137</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.574</v>
+        <v>0.5672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.574</v>
+        <v>0.5672</v>
       </c>
       <c r="D9" t="n">
-        <v>0.574</v>
+        <v>0.5672</v>
       </c>
       <c r="E9" t="n">
-        <v>0.574</v>
+        <v>0.5672</v>
       </c>
       <c r="F9" t="n">
-        <v>2442568.5071</v>
+        <v>938.9132</v>
       </c>
       <c r="G9" t="n">
-        <v>-76224361.29061371</v>
+        <v>-102278544.1103137</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5786</v>
+        <v>0.5661</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5786</v>
+        <v>0.5661</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5786</v>
+        <v>0.5661</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5786</v>
+        <v>0.5661</v>
       </c>
       <c r="F10" t="n">
-        <v>889.8812</v>
+        <v>1729867.2377</v>
       </c>
       <c r="G10" t="n">
-        <v>-76223471.40941371</v>
+        <v>-104008411.3480137</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="F11" t="n">
-        <v>2696564.58</v>
+        <v>915.2190000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-78920035.98941371</v>
+        <v>-104007496.1290137</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5786</v>
+        <v>0.5666</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5786</v>
+        <v>0.5666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5786</v>
+        <v>0.5666</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5786</v>
+        <v>0.5666</v>
       </c>
       <c r="F12" t="n">
-        <v>876.5719</v>
+        <v>2231643.9681</v>
       </c>
       <c r="G12" t="n">
-        <v>-78919159.41751371</v>
+        <v>-106239140.0971137</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -830,10 +846,10 @@
         <v>0.5672</v>
       </c>
       <c r="F13" t="n">
-        <v>2536124.0826</v>
+        <v>900.354</v>
       </c>
       <c r="G13" t="n">
-        <v>-81455283.50011371</v>
+        <v>-106238239.7431137</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5786</v>
+        <v>0.5665</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5786</v>
+        <v>0.5665</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5786</v>
+        <v>0.5665</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5786</v>
+        <v>0.5665</v>
       </c>
       <c r="F14" t="n">
-        <v>902.9767000000001</v>
+        <v>1845194.3445</v>
       </c>
       <c r="G14" t="n">
-        <v>-81454380.52341372</v>
+        <v>-108083434.0876137</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5668</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5668</v>
       </c>
       <c r="F15" t="n">
-        <v>2937348.8968</v>
+        <v>2224603.2829</v>
       </c>
       <c r="G15" t="n">
-        <v>-84391729.42021371</v>
+        <v>-105858830.8047137</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5786</v>
+        <v>0.5672</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5786</v>
+        <v>0.5672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5786</v>
+        <v>0.5672</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5786</v>
+        <v>0.5672</v>
       </c>
       <c r="F16" t="n">
-        <v>882.8774</v>
+        <v>1054.6799</v>
       </c>
       <c r="G16" t="n">
-        <v>-84390846.54281372</v>
+        <v>-105857776.1248137</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5736</v>
+        <v>0.5661</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5736</v>
+        <v>0.5661</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5736</v>
+        <v>0.5661</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5736</v>
+        <v>0.5661</v>
       </c>
       <c r="F17" t="n">
-        <v>1034104.3157</v>
+        <v>2888256.4699</v>
       </c>
       <c r="G17" t="n">
-        <v>-85424950.85851371</v>
+        <v>-108746032.5947137</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5786</v>
+        <v>0.5662</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5786</v>
+        <v>0.5662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5786</v>
+        <v>0.5662</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5786</v>
+        <v>0.5662</v>
       </c>
       <c r="F18" t="n">
-        <v>899.7709</v>
+        <v>664499.9236</v>
       </c>
       <c r="G18" t="n">
-        <v>-85424051.08761372</v>
+        <v>-108081532.6711137</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.572</v>
+        <v>0.5672</v>
       </c>
       <c r="C19" t="n">
-        <v>0.572</v>
+        <v>0.5672</v>
       </c>
       <c r="D19" t="n">
-        <v>0.572</v>
+        <v>0.5672</v>
       </c>
       <c r="E19" t="n">
-        <v>0.572</v>
+        <v>0.5672</v>
       </c>
       <c r="F19" t="n">
-        <v>2933414.3933</v>
+        <v>905.8119</v>
       </c>
       <c r="G19" t="n">
-        <v>-88357465.48091371</v>
+        <v>-108080626.8592137</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5755</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5755</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5755</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5755</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>2218995.5165</v>
+        <v>1918350.1292</v>
       </c>
       <c r="G20" t="n">
-        <v>-86138469.96441372</v>
+        <v>-109998976.9884137</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5784</v>
+        <v>0.5667</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5784</v>
+        <v>0.5667</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5784</v>
+        <v>0.5667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5784</v>
+        <v>0.5667</v>
       </c>
       <c r="F21" t="n">
-        <v>875.2246</v>
+        <v>999840.4379</v>
       </c>
       <c r="G21" t="n">
-        <v>-86137594.73981372</v>
+        <v>-108999136.5505137</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5750999999999999</v>
+        <v>0.5662</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5750999999999999</v>
+        <v>0.5662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5750999999999999</v>
+        <v>0.5662</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5750999999999999</v>
+        <v>0.5662</v>
       </c>
       <c r="F22" t="n">
-        <v>2689131.3228</v>
+        <v>1331437.2943</v>
       </c>
       <c r="G22" t="n">
-        <v>-88826726.06261371</v>
+        <v>-110330573.8448137</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5695</v>
+        <v>0.5659</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5695</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5695</v>
+        <v>0.5659</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5695</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>2626835.6438</v>
+        <v>1125221.0671</v>
       </c>
       <c r="G23" t="n">
-        <v>-91453561.70641372</v>
+        <v>-111455794.9119137</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5776</v>
+        <v>0.5672</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5776</v>
+        <v>0.5672</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5776</v>
+        <v>0.5672</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5776</v>
+        <v>0.5672</v>
       </c>
       <c r="F24" t="n">
-        <v>900.9988</v>
+        <v>905.7688000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-91452660.70761372</v>
+        <v>-111454889.1431137</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.573</v>
+        <v>0.5664</v>
       </c>
       <c r="C25" t="n">
-        <v>0.573</v>
+        <v>0.5664</v>
       </c>
       <c r="D25" t="n">
-        <v>0.573</v>
+        <v>0.5664</v>
       </c>
       <c r="E25" t="n">
-        <v>0.573</v>
+        <v>0.5664</v>
       </c>
       <c r="F25" t="n">
-        <v>2097176.141</v>
+        <v>1533831.1892</v>
       </c>
       <c r="G25" t="n">
-        <v>-93549836.84861372</v>
+        <v>-112988720.3323137</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5682</v>
+        <v>0.5668</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5682</v>
+        <v>0.5668</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5682</v>
+        <v>0.5668</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5682</v>
+        <v>0.5668</v>
       </c>
       <c r="F26" t="n">
-        <v>2846661.287</v>
+        <v>1257977.8634</v>
       </c>
       <c r="G26" t="n">
-        <v>-96396498.13561372</v>
+        <v>-111730742.4689137</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="F27" t="n">
-        <v>1478061.6231</v>
+        <v>927.7915</v>
       </c>
       <c r="G27" t="n">
-        <v>-94918436.51251373</v>
+        <v>-111729814.6774137</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5673</v>
+        <v>0.5666</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5673</v>
+        <v>0.5666</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5673</v>
+        <v>0.5666</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5673</v>
+        <v>0.5666</v>
       </c>
       <c r="F28" t="n">
-        <v>2969492.375</v>
+        <v>798226.9229</v>
       </c>
       <c r="G28" t="n">
-        <v>-97887928.88751373</v>
+        <v>-112528041.6003137</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5724</v>
+        <v>0.5672</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5724</v>
+        <v>0.5672</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5724</v>
+        <v>0.5672</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5724</v>
+        <v>0.5672</v>
       </c>
       <c r="F29" t="n">
-        <v>3093601.7985</v>
+        <v>881.9277</v>
       </c>
       <c r="G29" t="n">
-        <v>-94794327.08901373</v>
+        <v>-112527159.6726137</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5753</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5753</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5753</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5753</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>902.7336</v>
+        <v>1632211.22</v>
       </c>
       <c r="G30" t="n">
-        <v>-94793424.35541372</v>
+        <v>-114159370.8926137</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5675</v>
+        <v>0.5672</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5675</v>
+        <v>0.5672</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5675</v>
+        <v>0.5672</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5675</v>
+        <v>0.5672</v>
       </c>
       <c r="F31" t="n">
-        <v>2086058.1341</v>
+        <v>892.1420000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-96879482.48951373</v>
+        <v>-114158478.7506137</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5698</v>
+        <v>0.5662</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5698</v>
+        <v>0.5662</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5698</v>
+        <v>0.5662</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5698</v>
+        <v>0.5662</v>
       </c>
       <c r="F32" t="n">
-        <v>1483099.4359</v>
+        <v>1100615.4606</v>
       </c>
       <c r="G32" t="n">
-        <v>-95396383.05361372</v>
+        <v>-115259094.2112137</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.574</v>
+        <v>0.5672</v>
       </c>
       <c r="C33" t="n">
-        <v>0.574</v>
+        <v>0.5672</v>
       </c>
       <c r="D33" t="n">
-        <v>0.574</v>
+        <v>0.5672</v>
       </c>
       <c r="E33" t="n">
-        <v>0.574</v>
+        <v>0.5672</v>
       </c>
       <c r="F33" t="n">
-        <v>13416.6004</v>
+        <v>943.2114</v>
       </c>
       <c r="G33" t="n">
-        <v>-95382966.45321372</v>
+        <v>-115258150.9998137</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5716</v>
+        <v>0.5669</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5716</v>
+        <v>0.5669</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5716</v>
+        <v>0.5669</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5716</v>
+        <v>0.5669</v>
       </c>
       <c r="F34" t="n">
-        <v>1316517.3615</v>
+        <v>2856111.3577</v>
       </c>
       <c r="G34" t="n">
-        <v>-96699483.81471372</v>
+        <v>-118114262.3575137</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.569</v>
+        <v>0.5664</v>
       </c>
       <c r="C35" t="n">
-        <v>0.569</v>
+        <v>0.5664</v>
       </c>
       <c r="D35" t="n">
-        <v>0.569</v>
+        <v>0.5664</v>
       </c>
       <c r="E35" t="n">
-        <v>0.569</v>
+        <v>0.5664</v>
       </c>
       <c r="F35" t="n">
-        <v>768916.4237</v>
+        <v>1508711.3387</v>
       </c>
       <c r="G35" t="n">
-        <v>-97468400.23841372</v>
+        <v>-119622973.6962137</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5713</v>
+        <v>0.5659</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5713</v>
+        <v>0.5659</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5713</v>
+        <v>0.5659</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5713</v>
+        <v>0.5659</v>
       </c>
       <c r="F36" t="n">
-        <v>2532566.0477</v>
+        <v>747012.291</v>
       </c>
       <c r="G36" t="n">
-        <v>-94935834.19071372</v>
+        <v>-120369985.9872137</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5684</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5684</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5684</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5684</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>1592531.1107</v>
+        <v>1492772.0915</v>
       </c>
       <c r="G37" t="n">
-        <v>-96528365.30141371</v>
+        <v>-118877213.8957137</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.5651</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.5651</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.5651</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.5651</v>
       </c>
       <c r="F38" t="n">
-        <v>2421680.6474</v>
+        <v>1058845.7051</v>
       </c>
       <c r="G38" t="n">
-        <v>-94106684.65401371</v>
+        <v>-119936059.6008137</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5682</v>
+        <v>0.5672</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5682</v>
+        <v>0.5672</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5682</v>
+        <v>0.5672</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5682</v>
+        <v>0.5672</v>
       </c>
       <c r="F39" t="n">
-        <v>2574759.4589</v>
+        <v>1039.0921</v>
       </c>
       <c r="G39" t="n">
-        <v>-96681444.11291371</v>
+        <v>-119935020.5087137</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.572</v>
+        <v>0.5672</v>
       </c>
       <c r="C40" t="n">
-        <v>0.572</v>
+        <v>0.5672</v>
       </c>
       <c r="D40" t="n">
-        <v>0.572</v>
+        <v>0.5672</v>
       </c>
       <c r="E40" t="n">
-        <v>0.572</v>
+        <v>0.5672</v>
       </c>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>593685.7971</v>
       </c>
       <c r="G40" t="n">
-        <v>-96671444.11291371</v>
+        <v>-119935020.5087137</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5673</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5673</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5673</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5673</v>
       </c>
       <c r="F41" t="n">
-        <v>746144.2441</v>
+        <v>987.0933</v>
       </c>
       <c r="G41" t="n">
-        <v>-97417588.35701372</v>
+        <v>-119934033.4154137</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5704</v>
+        <v>0.5672</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5704</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5704</v>
+        <v>0.5672</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5704</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>2164166.1966</v>
+        <v>974061</v>
       </c>
       <c r="G42" t="n">
-        <v>-99581754.55361372</v>
+        <v>-120908094.4154137</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5712</v>
+        <v>0.5673</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5712</v>
+        <v>0.5673</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5712</v>
+        <v>0.5673</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5712</v>
+        <v>0.5585</v>
       </c>
       <c r="F43" t="n">
-        <v>873370.9807</v>
+        <v>42257.9468</v>
       </c>
       <c r="G43" t="n">
-        <v>-98708383.57291372</v>
+        <v>-120865836.4686137</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5707</v>
+        <v>0.5602</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5707</v>
+        <v>0.5602</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5707</v>
+        <v>0.5602</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5707</v>
+        <v>0.5602</v>
       </c>
       <c r="F44" t="n">
-        <v>2184744.5416</v>
+        <v>1023462.444</v>
       </c>
       <c r="G44" t="n">
-        <v>-100893128.1145137</v>
+        <v>-121889298.9126137</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1950,10 +1998,10 @@
         <v>0.5673</v>
       </c>
       <c r="F45" t="n">
-        <v>213233</v>
+        <v>985.0281</v>
       </c>
       <c r="G45" t="n">
-        <v>-101106361.1145137</v>
+        <v>-121888313.8845137</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5672</v>
+        <v>0.5618</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5672</v>
+        <v>0.5618</v>
       </c>
       <c r="F46" t="n">
-        <v>55714.3048</v>
+        <v>1397220.081330231</v>
       </c>
       <c r="G46" t="n">
-        <v>-101162075.4193137</v>
+        <v>-123285533.9658439</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5672</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5672</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5672</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5672</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>5113.9402</v>
+        <v>2668379.5018</v>
       </c>
       <c r="G47" t="n">
-        <v>-101162075.4193137</v>
+        <v>-125953913.4676439</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5671</v>
+        <v>0.5585</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5659</v>
+        <v>0.5585</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5671</v>
+        <v>0.5585</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5659</v>
+        <v>0.5585</v>
       </c>
       <c r="F48" t="n">
-        <v>2103768</v>
+        <v>159311.0012</v>
       </c>
       <c r="G48" t="n">
-        <v>-103265843.4193137</v>
+        <v>-126113224.468844</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5659</v>
+        <v>0.5669</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5659</v>
+        <v>0.5669</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5659</v>
+        <v>0.5669</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5659</v>
+        <v>0.5669</v>
       </c>
       <c r="F49" t="n">
-        <v>2853151.3382</v>
+        <v>2502283.4717</v>
       </c>
       <c r="G49" t="n">
-        <v>-103265843.4193137</v>
+        <v>-123610940.997144</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5665</v>
+        <v>0.5672</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5665</v>
+        <v>0.5672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5665</v>
+        <v>0.5672</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5665</v>
+        <v>0.5672</v>
       </c>
       <c r="F50" t="n">
-        <v>986360.3958000001</v>
+        <v>889.1733</v>
       </c>
       <c r="G50" t="n">
-        <v>-102279483.0235137</v>
+        <v>-123610051.823844</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5672</v>
+        <v>0.5657</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5672</v>
+        <v>0.5657</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5672</v>
+        <v>0.5657</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5672</v>
+        <v>0.5657</v>
       </c>
       <c r="F51" t="n">
-        <v>938.9132</v>
+        <v>2814609.8696</v>
       </c>
       <c r="G51" t="n">
-        <v>-102278544.1103137</v>
+        <v>-126424661.693444</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5661</v>
+        <v>0.5614</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5661</v>
+        <v>0.5614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5661</v>
+        <v>0.5614</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5661</v>
+        <v>0.5614</v>
       </c>
       <c r="F52" t="n">
-        <v>1729867.2377</v>
+        <v>1951467.9845</v>
       </c>
       <c r="G52" t="n">
-        <v>-104008411.3480137</v>
+        <v>-128376129.677944</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2230,10 +2286,10 @@
         <v>0.5672</v>
       </c>
       <c r="F53" t="n">
-        <v>915.2190000000001</v>
+        <v>891.7172</v>
       </c>
       <c r="G53" t="n">
-        <v>-104007496.1290137</v>
+        <v>-128375237.960744</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5666</v>
+        <v>0.5584</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5666</v>
+        <v>0.5584</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5666</v>
+        <v>0.5584</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5666</v>
+        <v>0.5584</v>
       </c>
       <c r="F54" t="n">
-        <v>2231643.9681</v>
+        <v>898</v>
       </c>
       <c r="G54" t="n">
-        <v>-106239140.0971137</v>
+        <v>-128376135.960744</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2300,10 +2358,10 @@
         <v>0.5672</v>
       </c>
       <c r="F55" t="n">
-        <v>900.354</v>
+        <v>908.9714</v>
       </c>
       <c r="G55" t="n">
-        <v>-106238239.7431137</v>
+        <v>-128375226.989344</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5665</v>
+        <v>0.5605</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5665</v>
+        <v>0.5605</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5665</v>
+        <v>0.5605</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5665</v>
+        <v>0.5605</v>
       </c>
       <c r="F56" t="n">
-        <v>1845194.3445</v>
+        <v>3083651.5201</v>
       </c>
       <c r="G56" t="n">
-        <v>-108083434.0876137</v>
+        <v>-131458878.509444</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2361,19 +2421,19 @@
         <v>0.5672</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5668</v>
+        <v>0.5672</v>
       </c>
       <c r="D57" t="n">
         <v>0.5672</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5668</v>
+        <v>0.5672</v>
       </c>
       <c r="F57" t="n">
-        <v>2224603.2829</v>
+        <v>969.002</v>
       </c>
       <c r="G57" t="n">
-        <v>-105858830.8047137</v>
+        <v>-131457909.507444</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5672</v>
+        <v>0.5649</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5672</v>
+        <v>0.5649</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5672</v>
+        <v>0.5649</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5672</v>
+        <v>0.5649</v>
       </c>
       <c r="F58" t="n">
-        <v>1054.6799</v>
+        <v>1619219.9416</v>
       </c>
       <c r="G58" t="n">
-        <v>-105857776.1248137</v>
+        <v>-133077129.449044</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5661</v>
+        <v>0.5672</v>
       </c>
       <c r="F59" t="n">
-        <v>2888256.4699</v>
+        <v>892.7944</v>
       </c>
       <c r="G59" t="n">
-        <v>-108746032.5947137</v>
+        <v>-133076236.654644</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5662</v>
+        <v>0.5636</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5662</v>
+        <v>0.5636</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5662</v>
+        <v>0.5636</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5662</v>
+        <v>0.5636</v>
       </c>
       <c r="F60" t="n">
-        <v>664499.9236</v>
+        <v>3159617.7344</v>
       </c>
       <c r="G60" t="n">
-        <v>-108081532.6711137</v>
+        <v>-136235854.389044</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2510,10 +2574,10 @@
         <v>0.5672</v>
       </c>
       <c r="F61" t="n">
-        <v>905.8119</v>
+        <v>1928.305</v>
       </c>
       <c r="G61" t="n">
-        <v>-108080626.8592137</v>
+        <v>-136233926.0840439</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5592</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5592</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5592</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5592</v>
       </c>
       <c r="F62" t="n">
-        <v>1918350.1292</v>
+        <v>944964.6279</v>
       </c>
       <c r="G62" t="n">
-        <v>-109998976.9884137</v>
+        <v>-137178890.711944</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5667</v>
+        <v>0.5672</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5667</v>
+        <v>0.5672</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5667</v>
+        <v>0.5672</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5667</v>
+        <v>0.5672</v>
       </c>
       <c r="F63" t="n">
-        <v>999840.4379</v>
+        <v>892.3539</v>
       </c>
       <c r="G63" t="n">
-        <v>-108999136.5505137</v>
+        <v>-137177998.358044</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="F64" t="n">
-        <v>1331437.2943</v>
+        <v>967.8976</v>
       </c>
       <c r="G64" t="n">
-        <v>-110330573.8448137</v>
+        <v>-137177998.358044</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5659</v>
+        <v>0.5606</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5606</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5659</v>
+        <v>0.5606</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5606</v>
       </c>
       <c r="F65" t="n">
-        <v>1125221.0671</v>
+        <v>2116211.6014</v>
       </c>
       <c r="G65" t="n">
-        <v>-111455794.9119137</v>
+        <v>-139294209.959444</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5672</v>
+        <v>0.5584</v>
       </c>
       <c r="F66" t="n">
-        <v>905.7688000000001</v>
+        <v>2703238.1488</v>
       </c>
       <c r="G66" t="n">
-        <v>-111454889.1431137</v>
+        <v>-141997448.1082439</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5664</v>
+        <v>0.5672</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5664</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5664</v>
+        <v>0.5672</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5664</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>1533831.1892</v>
+        <v>1574276.4346</v>
       </c>
       <c r="G67" t="n">
-        <v>-112988720.3323137</v>
+        <v>-140423171.6736439</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5668</v>
+        <v>0.5638</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5668</v>
+        <v>0.5638</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5668</v>
+        <v>0.5638</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5668</v>
+        <v>0.5638</v>
       </c>
       <c r="F68" t="n">
-        <v>1257977.8634</v>
+        <v>2673553.1206</v>
       </c>
       <c r="G68" t="n">
-        <v>-111730742.4689137</v>
+        <v>-143096724.7942439</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5672</v>
+        <v>0.5638</v>
       </c>
       <c r="F69" t="n">
-        <v>927.7915</v>
+        <v>1383811.725</v>
       </c>
       <c r="G69" t="n">
-        <v>-111729814.6774137</v>
+        <v>-143096724.7942439</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5666</v>
+        <v>0.5632</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5666</v>
+        <v>0.5632</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5666</v>
+        <v>0.5632</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5666</v>
+        <v>0.5632</v>
       </c>
       <c r="F70" t="n">
-        <v>798226.9229</v>
+        <v>1883801.904</v>
       </c>
       <c r="G70" t="n">
-        <v>-112528041.6003137</v>
+        <v>-144980526.6982439</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="F71" t="n">
-        <v>881.9277</v>
+        <v>1500313.1546</v>
       </c>
       <c r="G71" t="n">
-        <v>-112527159.6726137</v>
+        <v>-146480839.8528439</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5659</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5659</v>
       </c>
       <c r="F72" t="n">
-        <v>1632211.22</v>
+        <v>1039914.2796</v>
       </c>
       <c r="G72" t="n">
-        <v>-114159370.8926137</v>
+        <v>-145440925.5732439</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5672</v>
+        <v>0.5633</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5672</v>
+        <v>0.5633</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5672</v>
+        <v>0.5633</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5672</v>
+        <v>0.5633</v>
       </c>
       <c r="F73" t="n">
-        <v>892.1420000000001</v>
+        <v>2239146.5979</v>
       </c>
       <c r="G73" t="n">
-        <v>-114158478.7506137</v>
+        <v>-147680072.1711439</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5662</v>
+        <v>0.5618</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5662</v>
+        <v>0.5618</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5662</v>
+        <v>0.5618</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5662</v>
+        <v>0.5618</v>
       </c>
       <c r="F74" t="n">
-        <v>1100615.4606</v>
+        <v>2628581.8417</v>
       </c>
       <c r="G74" t="n">
-        <v>-115259094.2112137</v>
+        <v>-150308654.0128439</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5672</v>
+        <v>0.5639</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5672</v>
+        <v>0.5639</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5672</v>
+        <v>0.5639</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5672</v>
+        <v>0.5639</v>
       </c>
       <c r="F75" t="n">
-        <v>943.2114</v>
+        <v>2581633.1826</v>
       </c>
       <c r="G75" t="n">
-        <v>-115258150.9998137</v>
+        <v>-147727020.8302439</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,63 +3095,69 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5669</v>
+        <v>0.5643</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5669</v>
+        <v>0.5643</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5669</v>
+        <v>0.5643</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5669</v>
+        <v>0.5643</v>
       </c>
       <c r="F76" t="n">
-        <v>2856111.3577</v>
+        <v>1455956.5866</v>
       </c>
       <c r="G76" t="n">
-        <v>-118114262.3575137</v>
+        <v>-146271064.2436439</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.5639</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5664</v>
+        <v>0.5631</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5664</v>
+        <v>0.5631</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5664</v>
+        <v>0.5631</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5664</v>
+        <v>0.5631</v>
       </c>
       <c r="F77" t="n">
-        <v>1508711.3387</v>
+        <v>1641683.8122</v>
       </c>
       <c r="G77" t="n">
-        <v>-119622973.6962137</v>
+        <v>-147912748.0558439</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,68 +3166,84 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5659</v>
+        <v>0.5585</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5659</v>
+        <v>0.5584</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5659</v>
+        <v>0.5585</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5659</v>
+        <v>0.5584</v>
       </c>
       <c r="F78" t="n">
-        <v>747012.291</v>
+        <v>11079217.8231</v>
       </c>
       <c r="G78" t="n">
-        <v>-120369985.9872137</v>
+        <v>-158991965.8789439</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5611</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5611</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5611</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5611</v>
       </c>
       <c r="F79" t="n">
-        <v>1492772.0915</v>
+        <v>3137474.3015</v>
       </c>
       <c r="G79" t="n">
-        <v>-118877213.8957137</v>
+        <v>-155854491.577444</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,68 +3252,84 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5651</v>
+        <v>0.5638</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5651</v>
+        <v>0.5638</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5651</v>
+        <v>0.5638</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5651</v>
+        <v>0.5638</v>
       </c>
       <c r="F80" t="n">
-        <v>1058845.7051</v>
+        <v>2293823.3311</v>
       </c>
       <c r="G80" t="n">
-        <v>-119936059.6008137</v>
+        <v>-153560668.246344</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5672</v>
+        <v>0.5583</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5672</v>
+        <v>0.5583</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5672</v>
+        <v>0.5583</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5672</v>
+        <v>0.5583</v>
       </c>
       <c r="F81" t="n">
-        <v>1039.0921</v>
+        <v>106281.0181</v>
       </c>
       <c r="G81" t="n">
-        <v>-119935020.5087137</v>
+        <v>-153666949.264444</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,11 +3338,18 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3245,45 +3368,54 @@
         <v>0.5672</v>
       </c>
       <c r="F82" t="n">
-        <v>593685.7971</v>
+        <v>959.4068</v>
       </c>
       <c r="G82" t="n">
-        <v>-119935020.5087137</v>
+        <v>-153665989.857644</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5673</v>
+        <v>0.5586</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5673</v>
+        <v>0.5586</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5673</v>
+        <v>0.5586</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5673</v>
+        <v>0.5586</v>
       </c>
       <c r="F83" t="n">
-        <v>987.0933</v>
+        <v>1491094.7959</v>
       </c>
       <c r="G83" t="n">
-        <v>-119934033.4154137</v>
+        <v>-155157084.6535439</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3424,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5672</v>
+        <v>0.5626</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5626</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5672</v>
+        <v>0.5626</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5626</v>
       </c>
       <c r="F84" t="n">
-        <v>974061</v>
+        <v>1408195.252</v>
       </c>
       <c r="G84" t="n">
-        <v>-120908094.4154137</v>
+        <v>-153748889.4015439</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,33 +3466,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5673</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5673</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5673</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5585</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>42257.9468</v>
+        <v>1279576.4135</v>
       </c>
       <c r="G85" t="n">
-        <v>-120865836.4686137</v>
+        <v>-155028465.815044</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,33 +3508,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5602</v>
+        <v>0.5596</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5602</v>
+        <v>0.5583</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5602</v>
+        <v>0.5596</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5602</v>
+        <v>0.5583</v>
       </c>
       <c r="F86" t="n">
-        <v>1023462.444</v>
+        <v>1019395.1535</v>
       </c>
       <c r="G86" t="n">
-        <v>-121889298.9126137</v>
+        <v>-156047860.9685439</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3550,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5673</v>
+        <v>0.5644</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5673</v>
+        <v>0.5644</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5673</v>
+        <v>0.5644</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5673</v>
+        <v>0.5644</v>
       </c>
       <c r="F87" t="n">
-        <v>985.0281</v>
+        <v>1905734.259</v>
       </c>
       <c r="G87" t="n">
-        <v>-121888313.8845137</v>
+        <v>-154142126.7095439</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,33 +3592,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5673</v>
+        <v>0.5671</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5618</v>
+        <v>0.5671</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5673</v>
+        <v>0.5671</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5618</v>
+        <v>0.5671</v>
       </c>
       <c r="F88" t="n">
-        <v>1397220.081330231</v>
+        <v>1245238.5939</v>
       </c>
       <c r="G88" t="n">
-        <v>-123285533.9658439</v>
+        <v>-152896888.1156439</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,33 +3634,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5594</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5594</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5594</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5594</v>
       </c>
       <c r="F89" t="n">
-        <v>2668379.5018</v>
+        <v>3144760.7375</v>
       </c>
       <c r="G89" t="n">
-        <v>-125953913.4676439</v>
+        <v>-156041648.853144</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,33 +3676,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5585</v>
+        <v>0.5607</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5585</v>
+        <v>0.5607</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5585</v>
+        <v>0.5607</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5585</v>
+        <v>0.5607</v>
       </c>
       <c r="F90" t="n">
-        <v>159311.0012</v>
+        <v>3135234.8799</v>
       </c>
       <c r="G90" t="n">
-        <v>-126113224.468844</v>
+        <v>-152906413.973244</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,158 +3718,166 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5669</v>
+        <v>0.5658</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5669</v>
+        <v>0.5658</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5669</v>
+        <v>0.5658</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5669</v>
+        <v>0.5658</v>
       </c>
       <c r="F91" t="n">
-        <v>2502283.4717</v>
+        <v>1899256.6822</v>
       </c>
       <c r="G91" t="n">
-        <v>-123610940.997144</v>
+        <v>-151007157.2910439</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.5585</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0.5585</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>0.5639</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5672</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5672</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5672</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5672</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>889.1733</v>
+        <v>842714.9939</v>
       </c>
       <c r="G92" t="n">
-        <v>-123610051.823844</v>
+        <v>-151849872.2849439</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.5669</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0.5585</v>
+        <v>0.5639</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5657</v>
+        <v>0.5666</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5657</v>
+        <v>0.5666</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5657</v>
+        <v>0.5666</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5657</v>
+        <v>0.5666</v>
       </c>
       <c r="F93" t="n">
-        <v>2814609.8696</v>
+        <v>1613977.6309</v>
       </c>
       <c r="G93" t="n">
-        <v>-126424661.693444</v>
+        <v>-150235894.6540439</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.5672</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0.5585</v>
+        <v>0.5639</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5614</v>
+        <v>0.5636</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5614</v>
+        <v>0.5636</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5614</v>
+        <v>0.5636</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5614</v>
+        <v>0.5636</v>
       </c>
       <c r="F94" t="n">
-        <v>1951467.9845</v>
+        <v>2904327.457</v>
       </c>
       <c r="G94" t="n">
-        <v>-128376129.677944</v>
+        <v>-153140222.1110439</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3697,33 +3886,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5672</v>
+        <v>0.5616</v>
       </c>
       <c r="F95" t="n">
-        <v>891.7172</v>
+        <v>2061121.0201</v>
       </c>
       <c r="G95" t="n">
-        <v>-128375237.960744</v>
+        <v>-155201343.1311439</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3732,33 +3928,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5584</v>
+        <v>0.5672</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5584</v>
+        <v>0.5596</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5584</v>
+        <v>0.5672</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5584</v>
+        <v>0.5596</v>
       </c>
       <c r="F96" t="n">
-        <v>898</v>
+        <v>2178200.1934</v>
       </c>
       <c r="G96" t="n">
-        <v>-128376135.960744</v>
+        <v>-157379543.3245439</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3767,11 +3970,18 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,13 +3997,13 @@
         <v>0.5672</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5672</v>
+        <v>0.5572</v>
       </c>
       <c r="F97" t="n">
-        <v>908.9714</v>
+        <v>694085.3107</v>
       </c>
       <c r="G97" t="n">
-        <v>-128375226.989344</v>
+        <v>-156685458.0138439</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3802,33 +4012,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5605</v>
+        <v>0.5672</v>
       </c>
       <c r="F98" t="n">
-        <v>3083651.5201</v>
+        <v>1237.729</v>
       </c>
       <c r="G98" t="n">
-        <v>-131458878.509444</v>
+        <v>-156685458.0138439</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3837,33 +4054,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5672</v>
+        <v>0.5603</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5672</v>
+        <v>0.5603</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5672</v>
+        <v>0.5603</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5672</v>
+        <v>0.5603</v>
       </c>
       <c r="F99" t="n">
-        <v>969.002</v>
+        <v>1744179.03</v>
       </c>
       <c r="G99" t="n">
-        <v>-131457909.507444</v>
+        <v>-158429637.0438439</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3872,33 +4096,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5649</v>
+        <v>0.5672</v>
       </c>
       <c r="F100" t="n">
-        <v>1619219.9416</v>
+        <v>934.4586</v>
       </c>
       <c r="G100" t="n">
-        <v>-133077129.449044</v>
+        <v>-158428702.5852439</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3907,72 +4138,82 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5672</v>
+        <v>0.5622</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5672</v>
+        <v>0.5622</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5672</v>
+        <v>0.5622</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5672</v>
+        <v>0.5622</v>
       </c>
       <c r="F101" t="n">
-        <v>892.7944</v>
+        <v>1025244.9355</v>
       </c>
       <c r="G101" t="n">
-        <v>-133076236.654644</v>
+        <v>-159453947.5207439</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.5649</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.5649</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
+        <v>0.5639</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5636</v>
+        <v>0.5672</v>
       </c>
       <c r="F102" t="n">
-        <v>3159617.7344</v>
+        <v>929.0683</v>
       </c>
       <c r="G102" t="n">
-        <v>-136235854.389044</v>
+        <v>-159453018.4524439</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3982,120 +4223,123 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.5649</v>
+        <v>0.5639</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5672</v>
+        <v>0.5621</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5672</v>
+        <v>0.5621</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5672</v>
+        <v>0.5621</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5672</v>
+        <v>0.5621</v>
       </c>
       <c r="F103" t="n">
-        <v>1928.305</v>
+        <v>1200768.4791</v>
       </c>
       <c r="G103" t="n">
-        <v>-136233926.0840439</v>
+        <v>-160653786.9315439</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.5636</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.5649</v>
+        <v>0.5639</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5592</v>
+        <v>0.5583</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5592</v>
+        <v>0.5583</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5592</v>
+        <v>0.5583</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5592</v>
+        <v>0.5583</v>
       </c>
       <c r="F104" t="n">
-        <v>944964.6279</v>
+        <v>1384995.0944</v>
       </c>
       <c r="G104" t="n">
-        <v>-137178890.711944</v>
+        <v>-162038782.0259439</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.5672</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
+        <v>0.5639</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5672</v>
+        <v>0.5575</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5672</v>
+        <v>0.5575</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5672</v>
+        <v>0.5575</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5672</v>
+        <v>0.5575</v>
       </c>
       <c r="F105" t="n">
-        <v>892.3539</v>
+        <v>707302.4126</v>
       </c>
       <c r="G105" t="n">
-        <v>-137177998.358044</v>
+        <v>-162746084.4385439</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4105,38 +4349,39 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.5672</v>
+        <v>0.5639</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5672</v>
+        <v>0.5581</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5672</v>
+        <v>0.5581</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5672</v>
+        <v>0.5581</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5672</v>
+        <v>0.5581</v>
       </c>
       <c r="F106" t="n">
-        <v>967.8976</v>
+        <v>2710971.4825</v>
       </c>
       <c r="G106" t="n">
-        <v>-137177998.358044</v>
+        <v>-160035112.9560439</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4145,1523 +4390,20 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5672</v>
+        <v>0.5575</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5672</v>
+        <v>0.5639</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2116211.6014</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-139294209.959444</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2703238.1488</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-141997448.1082439</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1574276.4346</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-140423171.6736439</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2673553.1206</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-143096724.7942439</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1383811.725</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-143096724.7942439</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1883801.904</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-144980526.6982439</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1500313.1546</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-146480839.8528439</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.5659</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.5659</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1039914.2796</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-145440925.5732439</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5633</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.5633</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.5633</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.5633</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2239146.5979</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-147680072.1711439</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2628581.8417</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-150308654.0128439</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2581633.1826</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-147727020.8302439</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.5643</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.5643</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.5643</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.5643</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1455956.5866</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-146271064.2436439</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.5631</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.5631</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.5631</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.5631</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1641683.8122</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-147912748.0558439</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5585</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.5585</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="F120" t="n">
-        <v>11079217.8231</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-158991965.8789439</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3137474.3015</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-155854491.577444</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2293823.3311</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-153560668.246344</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="F123" t="n">
-        <v>106281.0181</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-153666949.264444</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="F124" t="n">
-        <v>959.4068</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-153665989.857644</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5586</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.5586</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.5586</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.5586</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1491094.7959</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-155157084.6535439</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5626</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.5626</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.5626</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.5626</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1408195.252</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-153748889.4015439</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1279576.4135</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-155028465.815044</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.5596</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.5596</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1019395.1535</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-156047860.9685439</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.5644</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.5644</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.5644</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.5644</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1905734.259</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-154142126.7095439</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1245238.5939</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-152896888.1156439</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.5594</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.5594</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.5594</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.5594</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3144760.7375</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-156041648.853144</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3135234.8799</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-152906413.973244</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.5658</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.5658</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.5658</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.5658</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1899256.6822</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-151007157.2910439</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>842714.9939</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-151849872.2849439</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.5666</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.5666</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.5666</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.5666</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1613977.6309</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-150235894.6540439</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.5636</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.5636</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.5636</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.5636</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2904327.457</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-153140222.1110439</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2061121.0201</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-155201343.1311439</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.5596</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.5596</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2178200.1934</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-157379543.3245439</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.5572</v>
-      </c>
-      <c r="F139" t="n">
-        <v>694085.3107</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-156685458.0138439</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1237.729</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-156685458.0138439</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.5603</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.5603</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.5603</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.5603</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1744179.03</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-158429637.0438439</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="F142" t="n">
-        <v>934.4586</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-158428702.5852439</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.5622</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.5622</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.5622</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.5622</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1025244.9355</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-159453947.5207439</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="F144" t="n">
-        <v>929.0683</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-159453018.4524439</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.5621</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.5621</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.5621</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.5621</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1200768.4791</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-160653786.9315439</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1384995.0944</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-162038782.0259439</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.5575</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.5575</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.5575</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.5575</v>
-      </c>
-      <c r="F147" t="n">
-        <v>707302.4126</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-162746084.4385439</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.5581</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.5581</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.5581</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.5581</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2710971.4825</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-160035112.9560439</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5707</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5707</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5707</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5707</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>2184744.5416</v>
+        <v>906.1775</v>
       </c>
       <c r="G2" t="n">
-        <v>-100893128.1145137</v>
+        <v>-68279400.9075</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5673</v>
+        <v>0.5689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5673</v>
+        <v>0.5689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5673</v>
+        <v>0.5689</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5673</v>
+        <v>0.5689</v>
       </c>
       <c r="F3" t="n">
-        <v>213233</v>
+        <v>1988770.0797</v>
       </c>
       <c r="G3" t="n">
-        <v>-101106361.1145137</v>
+        <v>-70268170.98719999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5672</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5672</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5672</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5672</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>55714.3048</v>
+        <v>2170614.3574</v>
       </c>
       <c r="G4" t="n">
-        <v>-101162075.4193137</v>
+        <v>-72438785.34459999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5672</v>
+        <v>0.5656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5672</v>
+        <v>0.5656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5672</v>
+        <v>0.5656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5672</v>
+        <v>0.5656</v>
       </c>
       <c r="F5" t="n">
-        <v>5113.9402</v>
+        <v>3076420.8504</v>
       </c>
       <c r="G5" t="n">
-        <v>-101162075.4193137</v>
+        <v>-75515206.19499999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5671</v>
+        <v>0.5669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5659</v>
+        <v>0.5669</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5671</v>
+        <v>0.5669</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5659</v>
+        <v>0.5669</v>
       </c>
       <c r="F6" t="n">
-        <v>2103768</v>
+        <v>1179804.7924</v>
       </c>
       <c r="G6" t="n">
-        <v>-103265843.4193137</v>
+        <v>-74335401.40259999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5659</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5659</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5659</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5659</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>2853151.3382</v>
+        <v>1503110.34</v>
       </c>
       <c r="G7" t="n">
-        <v>-103265843.4193137</v>
+        <v>-72832291.06259999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5665</v>
+        <v>0.5664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5665</v>
+        <v>0.5664</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5665</v>
+        <v>0.5664</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5665</v>
+        <v>0.5664</v>
       </c>
       <c r="F8" t="n">
-        <v>986360.3958000001</v>
+        <v>1909825.3636</v>
       </c>
       <c r="G8" t="n">
-        <v>-102279483.0235137</v>
+        <v>-74742116.42619999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>938.9132</v>
+        <v>1094821.9038</v>
       </c>
       <c r="G9" t="n">
-        <v>-102278544.1103137</v>
+        <v>-75836938.32999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5661</v>
+        <v>0.5698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5661</v>
+        <v>0.5698</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5661</v>
+        <v>0.5698</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5661</v>
+        <v>0.5698</v>
       </c>
       <c r="F10" t="n">
-        <v>1729867.2377</v>
+        <v>2335096.7155</v>
       </c>
       <c r="G10" t="n">
-        <v>-104008411.3480137</v>
+        <v>-73501841.61449999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5672</v>
+        <v>0.5722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5672</v>
+        <v>0.5722</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5672</v>
+        <v>0.5722</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5672</v>
+        <v>0.5722</v>
       </c>
       <c r="F11" t="n">
-        <v>915.2190000000001</v>
+        <v>2696351.3539</v>
       </c>
       <c r="G11" t="n">
-        <v>-104007496.1290137</v>
+        <v>-70805490.26059999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5666</v>
+        <v>0.5714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5666</v>
+        <v>0.5714</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5666</v>
+        <v>0.5714</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5666</v>
+        <v>0.5714</v>
       </c>
       <c r="F12" t="n">
-        <v>2231643.9681</v>
+        <v>2430204.4937</v>
       </c>
       <c r="G12" t="n">
-        <v>-106239140.0971137</v>
+        <v>-73235694.75429998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5672</v>
+        <v>0.5651</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5672</v>
+        <v>0.5651</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>900.354</v>
+        <v>1468948.4239</v>
       </c>
       <c r="G13" t="n">
-        <v>-106238239.7431137</v>
+        <v>-74704643.17819998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5665</v>
+        <v>0.5753</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5665</v>
+        <v>0.5753</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5665</v>
+        <v>0.5753</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5665</v>
+        <v>0.5753</v>
       </c>
       <c r="F14" t="n">
-        <v>1845194.3445</v>
+        <v>2436198.6522</v>
       </c>
       <c r="G14" t="n">
-        <v>-108083434.0876137</v>
+        <v>-72268444.52599998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5672</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5668</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5672</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5668</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>2224603.2829</v>
+        <v>1149541.3004</v>
       </c>
       <c r="G15" t="n">
-        <v>-105858830.8047137</v>
+        <v>-73417985.82639998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5672</v>
+        <v>0.5714</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5672</v>
+        <v>0.5714</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5672</v>
+        <v>0.5714</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5672</v>
+        <v>0.5714</v>
       </c>
       <c r="F16" t="n">
-        <v>1054.6799</v>
+        <v>1488329.678</v>
       </c>
       <c r="G16" t="n">
-        <v>-105857776.1248137</v>
+        <v>-71929656.14839998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5661</v>
+        <v>0.574</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5661</v>
+        <v>0.574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5661</v>
+        <v>0.574</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5661</v>
+        <v>0.574</v>
       </c>
       <c r="F17" t="n">
-        <v>2888256.4699</v>
+        <v>1413158.6431</v>
       </c>
       <c r="G17" t="n">
-        <v>-108746032.5947137</v>
+        <v>-70516497.50529999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5662</v>
+        <v>0.5748</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5662</v>
+        <v>0.5748</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5662</v>
+        <v>0.5748</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5662</v>
+        <v>0.5748</v>
       </c>
       <c r="F18" t="n">
-        <v>664499.9236</v>
+        <v>1827401.4639</v>
       </c>
       <c r="G18" t="n">
-        <v>-108081532.6711137</v>
+        <v>-68689096.04139999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5672</v>
+        <v>0.5755</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5672</v>
+        <v>0.5755</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5672</v>
+        <v>0.5755</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5672</v>
+        <v>0.5755</v>
       </c>
       <c r="F19" t="n">
-        <v>905.8119</v>
+        <v>2196820.7546</v>
       </c>
       <c r="G19" t="n">
-        <v>-108080626.8592137</v>
+        <v>-66492275.28679998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5703</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5703</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5703</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5703</v>
       </c>
       <c r="F20" t="n">
-        <v>1918350.1292</v>
+        <v>2381449.9203</v>
       </c>
       <c r="G20" t="n">
-        <v>-109998976.9884137</v>
+        <v>-68873725.20709999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5667</v>
+        <v>0.5737</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5667</v>
+        <v>0.5737</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5667</v>
+        <v>0.5737</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5667</v>
+        <v>0.5737</v>
       </c>
       <c r="F21" t="n">
-        <v>999840.4379</v>
+        <v>2307749.5054</v>
       </c>
       <c r="G21" t="n">
-        <v>-108999136.5505137</v>
+        <v>-66565975.70169999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5662</v>
+        <v>0.5725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5662</v>
+        <v>0.5725</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5662</v>
+        <v>0.5725</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5662</v>
+        <v>0.5725</v>
       </c>
       <c r="F22" t="n">
-        <v>1331437.2943</v>
+        <v>2255338.7963</v>
       </c>
       <c r="G22" t="n">
-        <v>-110330573.8448137</v>
+        <v>-68821314.49799998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5659</v>
+        <v>0.5726</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5726</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5659</v>
+        <v>0.5726</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5726</v>
       </c>
       <c r="F23" t="n">
-        <v>1125221.0671</v>
+        <v>983372.0595</v>
       </c>
       <c r="G23" t="n">
-        <v>-111455794.9119137</v>
+        <v>-67837942.43849999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5672</v>
+        <v>0.5712</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5672</v>
+        <v>0.5712</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5672</v>
+        <v>0.5712</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5672</v>
+        <v>0.5712</v>
       </c>
       <c r="F24" t="n">
-        <v>905.7688000000001</v>
+        <v>2377026.7975</v>
       </c>
       <c r="G24" t="n">
-        <v>-111454889.1431137</v>
+        <v>-70214969.23599999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5664</v>
+        <v>0.5703</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5664</v>
+        <v>0.5703</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5664</v>
+        <v>0.5703</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5664</v>
+        <v>0.5703</v>
       </c>
       <c r="F25" t="n">
-        <v>1533831.1892</v>
+        <v>2486290.7059</v>
       </c>
       <c r="G25" t="n">
-        <v>-112988720.3323137</v>
+        <v>-72701259.94189999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5668</v>
+        <v>0.576</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5668</v>
+        <v>0.576</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5668</v>
+        <v>0.576</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5668</v>
+        <v>0.576</v>
       </c>
       <c r="F26" t="n">
-        <v>1257977.8634</v>
+        <v>2464296.7535</v>
       </c>
       <c r="G26" t="n">
-        <v>-111730742.4689137</v>
+        <v>-70236963.18839999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5672</v>
+        <v>0.5734</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5672</v>
+        <v>0.5734</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5672</v>
+        <v>0.5734</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5672</v>
+        <v>0.5734</v>
       </c>
       <c r="F27" t="n">
-        <v>927.7915</v>
+        <v>2580323.6374</v>
       </c>
       <c r="G27" t="n">
-        <v>-111729814.6774137</v>
+        <v>-72817286.82579999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5666</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5666</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5666</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5666</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>798226.9229</v>
+        <v>2845585.9264</v>
       </c>
       <c r="G28" t="n">
-        <v>-112528041.6003137</v>
+        <v>-75662872.75219999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5672</v>
+        <v>0.5699</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5672</v>
+        <v>0.5699</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5672</v>
+        <v>0.5699</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5672</v>
+        <v>0.5699</v>
       </c>
       <c r="F29" t="n">
-        <v>881.9277</v>
+        <v>2957544.5661</v>
       </c>
       <c r="G29" t="n">
-        <v>-112527159.6726137</v>
+        <v>-72705328.18609999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5758</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5758</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5758</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5758</v>
       </c>
       <c r="F30" t="n">
-        <v>1632211.22</v>
+        <v>1024.4188</v>
       </c>
       <c r="G30" t="n">
-        <v>-114159370.8926137</v>
+        <v>-72704303.76729999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5672</v>
+        <v>0.572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5672</v>
+        <v>0.572</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5672</v>
+        <v>0.572</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5672</v>
+        <v>0.572</v>
       </c>
       <c r="F31" t="n">
-        <v>892.1420000000001</v>
+        <v>1940695.398</v>
       </c>
       <c r="G31" t="n">
-        <v>-114158478.7506137</v>
+        <v>-74644999.1653</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5662</v>
+        <v>0.5748</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5662</v>
+        <v>0.5748</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5662</v>
+        <v>0.5748</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5662</v>
+        <v>0.5748</v>
       </c>
       <c r="F32" t="n">
-        <v>1100615.4606</v>
+        <v>2121982.3327</v>
       </c>
       <c r="G32" t="n">
-        <v>-115259094.2112137</v>
+        <v>-72523016.8326</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5672</v>
+        <v>0.5758</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5672</v>
+        <v>0.5758</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5672</v>
+        <v>0.5758</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5672</v>
+        <v>0.5758</v>
       </c>
       <c r="F33" t="n">
-        <v>943.2114</v>
+        <v>936.4915999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-115258150.9998137</v>
+        <v>-72522080.34099999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5669</v>
+        <v>0.5758</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5669</v>
+        <v>0.5786</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5669</v>
+        <v>0.5786</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5669</v>
+        <v>0.5758</v>
       </c>
       <c r="F34" t="n">
-        <v>2856111.3577</v>
+        <v>159311.0012862772</v>
       </c>
       <c r="G34" t="n">
-        <v>-118114262.3575137</v>
+        <v>-72362769.33971371</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5664</v>
+        <v>0.5659</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5664</v>
+        <v>0.5659</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5664</v>
+        <v>0.5659</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5664</v>
+        <v>0.5659</v>
       </c>
       <c r="F35" t="n">
-        <v>1508711.3387</v>
+        <v>1420099.8618</v>
       </c>
       <c r="G35" t="n">
-        <v>-119622973.6962137</v>
+        <v>-73782869.20151371</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5659</v>
+        <v>0.5786</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5659</v>
+        <v>0.5786</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5659</v>
+        <v>0.5786</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5659</v>
+        <v>0.5786</v>
       </c>
       <c r="F36" t="n">
-        <v>747012.291</v>
+        <v>1076.418</v>
       </c>
       <c r="G36" t="n">
-        <v>-120369985.9872137</v>
+        <v>-73781792.78351371</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5697</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5786</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5786</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5697</v>
       </c>
       <c r="F37" t="n">
-        <v>1492772.0915</v>
+        <v>1062608.7469</v>
       </c>
       <c r="G37" t="n">
-        <v>-118877213.8957137</v>
+        <v>-73781792.78351371</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5651</v>
+        <v>0.574</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5651</v>
+        <v>0.574</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5651</v>
+        <v>0.574</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5651</v>
+        <v>0.574</v>
       </c>
       <c r="F38" t="n">
-        <v>1058845.7051</v>
+        <v>2442568.5071</v>
       </c>
       <c r="G38" t="n">
-        <v>-119936059.6008137</v>
+        <v>-76224361.29061371</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5672</v>
+        <v>0.5786</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5672</v>
+        <v>0.5786</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5672</v>
+        <v>0.5786</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5672</v>
+        <v>0.5786</v>
       </c>
       <c r="F39" t="n">
-        <v>1039.0921</v>
+        <v>889.8812</v>
       </c>
       <c r="G39" t="n">
-        <v>-119935020.5087137</v>
+        <v>-76223471.40941371</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5672</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5672</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5672</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5672</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>593685.7971</v>
+        <v>2696564.58</v>
       </c>
       <c r="G40" t="n">
-        <v>-119935020.5087137</v>
+        <v>-78920035.98941371</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="F41" t="n">
-        <v>987.0933</v>
+        <v>876.5719</v>
       </c>
       <c r="G41" t="n">
-        <v>-119934033.4154137</v>
+        <v>-78919159.41751371</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1881,25 +1881,25 @@
         <v>0.5672</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="D42" t="n">
         <v>0.5672</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5672</v>
       </c>
       <c r="F42" t="n">
-        <v>974061</v>
+        <v>2536124.0826</v>
       </c>
       <c r="G42" t="n">
-        <v>-120908094.4154137</v>
+        <v>-81455283.50011371</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5585</v>
+        <v>0.5786</v>
       </c>
       <c r="F43" t="n">
-        <v>42257.9468</v>
+        <v>902.9767000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-120865836.4686137</v>
+        <v>-81454380.52341372</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5602</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5602</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5602</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5602</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>1023462.444</v>
+        <v>2937348.8968</v>
       </c>
       <c r="G44" t="n">
-        <v>-121889298.9126137</v>
+        <v>-84391729.42021371</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5673</v>
+        <v>0.5786</v>
       </c>
       <c r="F45" t="n">
-        <v>985.0281</v>
+        <v>882.8774</v>
       </c>
       <c r="G45" t="n">
-        <v>-121888313.8845137</v>
+        <v>-84390846.54281372</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5673</v>
+        <v>0.5736</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5618</v>
+        <v>0.5736</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5673</v>
+        <v>0.5736</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5618</v>
+        <v>0.5736</v>
       </c>
       <c r="F46" t="n">
-        <v>1397220.081330231</v>
+        <v>1034104.3157</v>
       </c>
       <c r="G46" t="n">
-        <v>-123285533.9658439</v>
+        <v>-85424950.85851371</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="F47" t="n">
-        <v>2668379.5018</v>
+        <v>899.7709</v>
       </c>
       <c r="G47" t="n">
-        <v>-125953913.4676439</v>
+        <v>-85424051.08761372</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5585</v>
+        <v>0.572</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5585</v>
+        <v>0.572</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5585</v>
+        <v>0.572</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5585</v>
+        <v>0.572</v>
       </c>
       <c r="F48" t="n">
-        <v>159311.0012</v>
+        <v>2933414.3933</v>
       </c>
       <c r="G48" t="n">
-        <v>-126113224.468844</v>
+        <v>-88357465.48091371</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5669</v>
+        <v>0.5755</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5669</v>
+        <v>0.5755</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5669</v>
+        <v>0.5755</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5669</v>
+        <v>0.5755</v>
       </c>
       <c r="F49" t="n">
-        <v>2502283.4717</v>
+        <v>2218995.5165</v>
       </c>
       <c r="G49" t="n">
-        <v>-123610940.997144</v>
+        <v>-86138469.96441372</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5672</v>
+        <v>0.5784</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5672</v>
+        <v>0.5784</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5672</v>
+        <v>0.5784</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5672</v>
+        <v>0.5784</v>
       </c>
       <c r="F50" t="n">
-        <v>889.1733</v>
+        <v>875.2246</v>
       </c>
       <c r="G50" t="n">
-        <v>-123610051.823844</v>
+        <v>-86137594.73981372</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5657</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5657</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5657</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5657</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>2814609.8696</v>
+        <v>2689131.3228</v>
       </c>
       <c r="G51" t="n">
-        <v>-126424661.693444</v>
+        <v>-88826726.06261371</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5614</v>
+        <v>0.5695</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5614</v>
+        <v>0.5695</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5614</v>
+        <v>0.5695</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5614</v>
+        <v>0.5695</v>
       </c>
       <c r="F52" t="n">
-        <v>1951467.9845</v>
+        <v>2626835.6438</v>
       </c>
       <c r="G52" t="n">
-        <v>-128376129.677944</v>
+        <v>-91453561.70641372</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5672</v>
+        <v>0.5776</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5672</v>
+        <v>0.5776</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5672</v>
+        <v>0.5776</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5672</v>
+        <v>0.5776</v>
       </c>
       <c r="F53" t="n">
-        <v>891.7172</v>
+        <v>900.9988</v>
       </c>
       <c r="G53" t="n">
-        <v>-128375237.960744</v>
+        <v>-91452660.70761372</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5584</v>
+        <v>0.573</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5584</v>
+        <v>0.573</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5584</v>
+        <v>0.573</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5584</v>
+        <v>0.573</v>
       </c>
       <c r="F54" t="n">
-        <v>898</v>
+        <v>2097176.141</v>
       </c>
       <c r="G54" t="n">
-        <v>-128376135.960744</v>
+        <v>-93549836.84861372</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5672</v>
+        <v>0.5682</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5672</v>
+        <v>0.5682</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5672</v>
+        <v>0.5682</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5672</v>
+        <v>0.5682</v>
       </c>
       <c r="F55" t="n">
-        <v>908.9714</v>
+        <v>2846661.287</v>
       </c>
       <c r="G55" t="n">
-        <v>-128375226.989344</v>
+        <v>-96396498.13561372</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5605</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5605</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5605</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5605</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>3083651.5201</v>
+        <v>1478061.6231</v>
       </c>
       <c r="G56" t="n">
-        <v>-131458878.509444</v>
+        <v>-94918436.51251373</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="F57" t="n">
-        <v>969.002</v>
+        <v>2969492.375</v>
       </c>
       <c r="G57" t="n">
-        <v>-131457909.507444</v>
+        <v>-97887928.88751373</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5649</v>
+        <v>0.5724</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5649</v>
+        <v>0.5724</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5649</v>
+        <v>0.5724</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5649</v>
+        <v>0.5724</v>
       </c>
       <c r="F58" t="n">
-        <v>1619219.9416</v>
+        <v>3093601.7985</v>
       </c>
       <c r="G58" t="n">
-        <v>-133077129.449044</v>
+        <v>-94794327.08901373</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5672</v>
+        <v>0.5753</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5672</v>
+        <v>0.5753</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5672</v>
+        <v>0.5753</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5672</v>
+        <v>0.5753</v>
       </c>
       <c r="F59" t="n">
-        <v>892.7944</v>
+        <v>902.7336</v>
       </c>
       <c r="G59" t="n">
-        <v>-133076236.654644</v>
+        <v>-94793424.35541372</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5636</v>
+        <v>0.5675</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5636</v>
+        <v>0.5675</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5636</v>
+        <v>0.5675</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5636</v>
+        <v>0.5675</v>
       </c>
       <c r="F60" t="n">
-        <v>3159617.7344</v>
+        <v>2086058.1341</v>
       </c>
       <c r="G60" t="n">
-        <v>-136235854.389044</v>
+        <v>-96879482.48951373</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5672</v>
+        <v>0.5698</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5672</v>
+        <v>0.5698</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5672</v>
+        <v>0.5698</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5672</v>
+        <v>0.5698</v>
       </c>
       <c r="F61" t="n">
-        <v>1928.305</v>
+        <v>1483099.4359</v>
       </c>
       <c r="G61" t="n">
-        <v>-136233926.0840439</v>
+        <v>-95396383.05361372</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5592</v>
+        <v>0.574</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5592</v>
+        <v>0.574</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5592</v>
+        <v>0.574</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5592</v>
+        <v>0.574</v>
       </c>
       <c r="F62" t="n">
-        <v>944964.6279</v>
+        <v>13416.6004</v>
       </c>
       <c r="G62" t="n">
-        <v>-137178890.711944</v>
+        <v>-95382966.45321372</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5672</v>
+        <v>0.5716</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5672</v>
+        <v>0.5716</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5672</v>
+        <v>0.5716</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5672</v>
+        <v>0.5716</v>
       </c>
       <c r="F63" t="n">
-        <v>892.3539</v>
+        <v>1316517.3615</v>
       </c>
       <c r="G63" t="n">
-        <v>-137177998.358044</v>
+        <v>-96699483.81471372</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5672</v>
+        <v>0.569</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5672</v>
+        <v>0.569</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5672</v>
+        <v>0.569</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5672</v>
+        <v>0.569</v>
       </c>
       <c r="F64" t="n">
-        <v>967.8976</v>
+        <v>768916.4237</v>
       </c>
       <c r="G64" t="n">
-        <v>-137177998.358044</v>
+        <v>-97468400.23841372</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5606</v>
+        <v>0.5713</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5606</v>
+        <v>0.5713</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5606</v>
+        <v>0.5713</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5606</v>
+        <v>0.5713</v>
       </c>
       <c r="F65" t="n">
-        <v>2116211.6014</v>
+        <v>2532566.0477</v>
       </c>
       <c r="G65" t="n">
-        <v>-139294209.959444</v>
+        <v>-94935834.19071372</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5584</v>
+        <v>0.5684</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5584</v>
+        <v>0.5684</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5584</v>
+        <v>0.5684</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5584</v>
+        <v>0.5684</v>
       </c>
       <c r="F66" t="n">
-        <v>2703238.1488</v>
+        <v>1592531.1107</v>
       </c>
       <c r="G66" t="n">
-        <v>-141997448.1082439</v>
+        <v>-96528365.30141371</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5672</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5672</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>1574276.4346</v>
+        <v>2421680.6474</v>
       </c>
       <c r="G67" t="n">
-        <v>-140423171.6736439</v>
+        <v>-94106684.65401371</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5638</v>
+        <v>0.5682</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5638</v>
+        <v>0.5682</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5638</v>
+        <v>0.5682</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5638</v>
+        <v>0.5682</v>
       </c>
       <c r="F68" t="n">
-        <v>2673553.1206</v>
+        <v>2574759.4589</v>
       </c>
       <c r="G68" t="n">
-        <v>-143096724.7942439</v>
+        <v>-96681444.11291371</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5638</v>
+        <v>0.572</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5638</v>
+        <v>0.572</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5638</v>
+        <v>0.572</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5638</v>
+        <v>0.572</v>
       </c>
       <c r="F69" t="n">
-        <v>1383811.725</v>
+        <v>10000</v>
       </c>
       <c r="G69" t="n">
-        <v>-143096724.7942439</v>
+        <v>-96671444.11291371</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5632</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5632</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5632</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5632</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>1883801.904</v>
+        <v>746144.2441</v>
       </c>
       <c r="G70" t="n">
-        <v>-144980526.6982439</v>
+        <v>-97417588.35701372</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5616</v>
+        <v>0.5704</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5616</v>
+        <v>0.5704</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5616</v>
+        <v>0.5704</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5616</v>
+        <v>0.5704</v>
       </c>
       <c r="F71" t="n">
-        <v>1500313.1546</v>
+        <v>2164166.1966</v>
       </c>
       <c r="G71" t="n">
-        <v>-146480839.8528439</v>
+        <v>-99581754.55361372</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5659</v>
+        <v>0.5712</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5672</v>
+        <v>0.5712</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5672</v>
+        <v>0.5712</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5659</v>
+        <v>0.5712</v>
       </c>
       <c r="F72" t="n">
-        <v>1039914.2796</v>
+        <v>873370.9807</v>
       </c>
       <c r="G72" t="n">
-        <v>-145440925.5732439</v>
+        <v>-98708383.57291372</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5633</v>
+        <v>0.5707</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5633</v>
+        <v>0.5707</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5633</v>
+        <v>0.5707</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5633</v>
+        <v>0.5707</v>
       </c>
       <c r="F73" t="n">
-        <v>2239146.5979</v>
+        <v>2184744.5416</v>
       </c>
       <c r="G73" t="n">
-        <v>-147680072.1711439</v>
+        <v>-100893128.1145137</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5618</v>
+        <v>0.5673</v>
       </c>
       <c r="F74" t="n">
-        <v>2628581.8417</v>
+        <v>213233</v>
       </c>
       <c r="G74" t="n">
-        <v>-150308654.0128439</v>
+        <v>-101106361.1145137</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5639</v>
+        <v>0.5672</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5639</v>
+        <v>0.5672</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5639</v>
+        <v>0.5672</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5639</v>
+        <v>0.5672</v>
       </c>
       <c r="F75" t="n">
-        <v>2581633.1826</v>
+        <v>55714.3048</v>
       </c>
       <c r="G75" t="n">
-        <v>-147727020.8302439</v>
+        <v>-101162075.4193137</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,35 +3102,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5643</v>
+        <v>0.5672</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5643</v>
+        <v>0.5672</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5643</v>
+        <v>0.5672</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5643</v>
+        <v>0.5672</v>
       </c>
       <c r="F76" t="n">
-        <v>1455956.5866</v>
+        <v>5113.9402</v>
       </c>
       <c r="G76" t="n">
-        <v>-146271064.2436439</v>
+        <v>-101162075.4193137</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.5639</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
@@ -3142,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5631</v>
+        <v>0.5671</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5631</v>
+        <v>0.5659</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5631</v>
+        <v>0.5671</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5631</v>
+        <v>0.5659</v>
       </c>
       <c r="F77" t="n">
-        <v>1641683.8122</v>
+        <v>2103768</v>
       </c>
       <c r="G77" t="n">
-        <v>-147912748.0558439</v>
+        <v>-103265843.4193137</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3166,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3184,40 +3174,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5585</v>
+        <v>0.5659</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5584</v>
+        <v>0.5659</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5585</v>
+        <v>0.5659</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5584</v>
+        <v>0.5659</v>
       </c>
       <c r="F78" t="n">
-        <v>11079217.8231</v>
+        <v>2853151.3382</v>
       </c>
       <c r="G78" t="n">
-        <v>-158991965.8789439</v>
+        <v>-103265843.4193137</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.5631</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3228,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5611</v>
+        <v>0.5665</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5611</v>
+        <v>0.5665</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5611</v>
+        <v>0.5665</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5611</v>
+        <v>0.5665</v>
       </c>
       <c r="F79" t="n">
-        <v>3137474.3015</v>
+        <v>986360.3958000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-155854491.577444</v>
+        <v>-102279483.0235137</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3252,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3270,40 +3246,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5638</v>
+        <v>0.5672</v>
       </c>
       <c r="F80" t="n">
-        <v>2293823.3311</v>
+        <v>938.9132</v>
       </c>
       <c r="G80" t="n">
-        <v>-153560668.246344</v>
+        <v>-102278544.1103137</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3314,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5583</v>
+        <v>0.5661</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5583</v>
+        <v>0.5661</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5583</v>
+        <v>0.5661</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5583</v>
+        <v>0.5661</v>
       </c>
       <c r="F81" t="n">
-        <v>106281.0181</v>
+        <v>1729867.2377</v>
       </c>
       <c r="G81" t="n">
-        <v>-153666949.264444</v>
+        <v>-104008411.3480137</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3338,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3368,28 +3330,20 @@
         <v>0.5672</v>
       </c>
       <c r="F82" t="n">
-        <v>959.4068</v>
+        <v>915.2190000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-153665989.857644</v>
+        <v>-104007496.1290137</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3400,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5586</v>
+        <v>0.5666</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5586</v>
+        <v>0.5666</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5586</v>
+        <v>0.5666</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5586</v>
+        <v>0.5666</v>
       </c>
       <c r="F83" t="n">
-        <v>1491094.7959</v>
+        <v>2231643.9681</v>
       </c>
       <c r="G83" t="n">
-        <v>-155157084.6535439</v>
+        <v>-106239140.0971137</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3424,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3442,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5626</v>
+        <v>0.5672</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5626</v>
+        <v>0.5672</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5626</v>
+        <v>0.5672</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5626</v>
+        <v>0.5672</v>
       </c>
       <c r="F84" t="n">
-        <v>1408195.252</v>
+        <v>900.354</v>
       </c>
       <c r="G84" t="n">
-        <v>-153748889.4015439</v>
+        <v>-106238239.7431137</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3466,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3484,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5665</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5665</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5665</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5665</v>
       </c>
       <c r="F85" t="n">
-        <v>1279576.4135</v>
+        <v>1845194.3445</v>
       </c>
       <c r="G85" t="n">
-        <v>-155028465.815044</v>
+        <v>-108083434.0876137</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3508,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3526,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5596</v>
+        <v>0.5672</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5583</v>
+        <v>0.5668</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5596</v>
+        <v>0.5672</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5583</v>
+        <v>0.5668</v>
       </c>
       <c r="F86" t="n">
-        <v>1019395.1535</v>
+        <v>2224603.2829</v>
       </c>
       <c r="G86" t="n">
-        <v>-156047860.9685439</v>
+        <v>-105858830.8047137</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3550,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5644</v>
+        <v>0.5672</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5644</v>
+        <v>0.5672</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5644</v>
+        <v>0.5672</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5644</v>
+        <v>0.5672</v>
       </c>
       <c r="F87" t="n">
-        <v>1905734.259</v>
+        <v>1054.6799</v>
       </c>
       <c r="G87" t="n">
-        <v>-154142126.7095439</v>
+        <v>-105857776.1248137</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3592,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3610,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5671</v>
+        <v>0.5661</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5671</v>
+        <v>0.5661</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5671</v>
+        <v>0.5661</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5671</v>
+        <v>0.5661</v>
       </c>
       <c r="F88" t="n">
-        <v>1245238.5939</v>
+        <v>2888256.4699</v>
       </c>
       <c r="G88" t="n">
-        <v>-152896888.1156439</v>
+        <v>-108746032.5947137</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3634,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3652,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5594</v>
+        <v>0.5662</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5594</v>
+        <v>0.5662</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5594</v>
+        <v>0.5662</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5594</v>
+        <v>0.5662</v>
       </c>
       <c r="F89" t="n">
-        <v>3144760.7375</v>
+        <v>664499.9236</v>
       </c>
       <c r="G89" t="n">
-        <v>-156041648.853144</v>
+        <v>-108081532.6711137</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3676,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3694,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5607</v>
+        <v>0.5672</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5607</v>
+        <v>0.5672</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5607</v>
+        <v>0.5672</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5607</v>
+        <v>0.5672</v>
       </c>
       <c r="F90" t="n">
-        <v>3135234.8799</v>
+        <v>905.8119</v>
       </c>
       <c r="G90" t="n">
-        <v>-152906413.973244</v>
+        <v>-108080626.8592137</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3718,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3736,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5658</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5658</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5658</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5658</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>1899256.6822</v>
+        <v>1918350.1292</v>
       </c>
       <c r="G91" t="n">
-        <v>-151007157.2910439</v>
+        <v>-109998976.9884137</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3760,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5667</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5667</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5667</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5667</v>
       </c>
       <c r="F92" t="n">
-        <v>842714.9939</v>
+        <v>999840.4379</v>
       </c>
       <c r="G92" t="n">
-        <v>-151849872.2849439</v>
+        <v>-108999136.5505137</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3802,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3820,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5666</v>
+        <v>0.5662</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5666</v>
+        <v>0.5662</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5666</v>
+        <v>0.5662</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5666</v>
+        <v>0.5662</v>
       </c>
       <c r="F93" t="n">
-        <v>1613977.6309</v>
+        <v>1331437.2943</v>
       </c>
       <c r="G93" t="n">
-        <v>-150235894.6540439</v>
+        <v>-110330573.8448137</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3844,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3862,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5636</v>
+        <v>0.5659</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5636</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5636</v>
+        <v>0.5659</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5636</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>2904327.457</v>
+        <v>1125221.0671</v>
       </c>
       <c r="G94" t="n">
-        <v>-153140222.1110439</v>
+        <v>-111455794.9119137</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3886,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3904,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5616</v>
+        <v>0.5672</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5616</v>
+        <v>0.5672</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5616</v>
+        <v>0.5672</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5616</v>
+        <v>0.5672</v>
       </c>
       <c r="F95" t="n">
-        <v>2061121.0201</v>
+        <v>905.7688000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-155201343.1311439</v>
+        <v>-111454889.1431137</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3928,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3946,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5672</v>
+        <v>0.5664</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5596</v>
+        <v>0.5664</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5672</v>
+        <v>0.5664</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5596</v>
+        <v>0.5664</v>
       </c>
       <c r="F96" t="n">
-        <v>2178200.1934</v>
+        <v>1533831.1892</v>
       </c>
       <c r="G96" t="n">
-        <v>-157379543.3245439</v>
+        <v>-112988720.3323137</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3970,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5672</v>
+        <v>0.5668</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5572</v>
+        <v>0.5668</v>
       </c>
       <c r="F97" t="n">
-        <v>694085.3107</v>
+        <v>1257977.8634</v>
       </c>
       <c r="G97" t="n">
-        <v>-156685458.0138439</v>
+        <v>-111730742.4689137</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4012,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4042,10 +3906,10 @@
         <v>0.5672</v>
       </c>
       <c r="F98" t="n">
-        <v>1237.729</v>
+        <v>927.7915</v>
       </c>
       <c r="G98" t="n">
-        <v>-156685458.0138439</v>
+        <v>-111729814.6774137</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4054,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5603</v>
+        <v>0.5666</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5603</v>
+        <v>0.5666</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5603</v>
+        <v>0.5666</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5603</v>
+        <v>0.5666</v>
       </c>
       <c r="F99" t="n">
-        <v>1744179.03</v>
+        <v>798226.9229</v>
       </c>
       <c r="G99" t="n">
-        <v>-158429637.0438439</v>
+        <v>-112528041.6003137</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4096,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4126,10 +3978,10 @@
         <v>0.5672</v>
       </c>
       <c r="F100" t="n">
-        <v>934.4586</v>
+        <v>881.9277</v>
       </c>
       <c r="G100" t="n">
-        <v>-158428702.5852439</v>
+        <v>-112527159.6726137</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4138,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4156,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5622</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5622</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5622</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5622</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>1025244.9355</v>
+        <v>1632211.22</v>
       </c>
       <c r="G101" t="n">
-        <v>-159453947.5207439</v>
+        <v>-114159370.8926137</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4180,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4210,10 +4050,10 @@
         <v>0.5672</v>
       </c>
       <c r="F102" t="n">
-        <v>929.0683</v>
+        <v>892.1420000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-159453018.4524439</v>
+        <v>-114158478.7506137</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4222,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4240,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5621</v>
+        <v>0.5662</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5621</v>
+        <v>0.5662</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5621</v>
+        <v>0.5662</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5621</v>
+        <v>0.5662</v>
       </c>
       <c r="F103" t="n">
-        <v>1200768.4791</v>
+        <v>1100615.4606</v>
       </c>
       <c r="G103" t="n">
-        <v>-160653786.9315439</v>
+        <v>-115259094.2112137</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4264,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4282,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5583</v>
+        <v>0.5672</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5583</v>
+        <v>0.5672</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5583</v>
+        <v>0.5672</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5583</v>
+        <v>0.5672</v>
       </c>
       <c r="F104" t="n">
-        <v>1384995.0944</v>
+        <v>943.2114</v>
       </c>
       <c r="G104" t="n">
-        <v>-162038782.0259439</v>
+        <v>-115258150.9998137</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4306,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4324,38 +4146,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5575</v>
+        <v>0.5669</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5575</v>
+        <v>0.5669</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5575</v>
+        <v>0.5669</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5575</v>
+        <v>0.5669</v>
       </c>
       <c r="F105" t="n">
-        <v>707302.4126</v>
+        <v>2856111.3577</v>
       </c>
       <c r="G105" t="n">
-        <v>-162746084.4385439</v>
+        <v>-118114262.3575137</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4366,44 +4182,2874 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1508711.3387</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-119622973.6962137</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5659</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5659</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.5659</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.5659</v>
+      </c>
+      <c r="F107" t="n">
+        <v>747012.291</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-120369985.9872137</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1492772.0915</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-118877213.8957137</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1058845.7051</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-119936059.6008137</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1039.0921</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-119935020.5087137</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F111" t="n">
+        <v>593685.7971</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-119935020.5087137</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="F112" t="n">
+        <v>987.0933</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-119934033.4154137</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F113" t="n">
+        <v>974061</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-120908094.4154137</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="F114" t="n">
+        <v>42257.9468</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-120865836.4686137</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5602</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5602</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.5602</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5602</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1023462.444</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-121889298.9126137</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="F116" t="n">
+        <v>985.0281</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-121888313.8845137</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5602</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1397220.081330231</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-123285533.9658439</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2668379.5018</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-125953913.4676439</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="F119" t="n">
+        <v>159311.0012</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-126113224.468844</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2502283.4717</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-123610940.997144</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F121" t="n">
+        <v>889.1733</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-123610051.823844</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2814609.8696</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-126424661.693444</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1951467.9845</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-128376129.677944</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F124" t="n">
+        <v>891.7172</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-128375237.960744</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="F125" t="n">
+        <v>898</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-128376135.960744</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F126" t="n">
+        <v>908.9714</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-128375226.989344</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3083651.5201</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-131458878.509444</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F128" t="n">
+        <v>969.002</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-131457909.507444</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.5649</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5649</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5649</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5649</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1619219.9416</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-133077129.449044</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F130" t="n">
+        <v>892.7944</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-133076236.654644</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3159617.7344</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-136235854.389044</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1928.305</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-136233926.0840439</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="F133" t="n">
+        <v>944964.6279</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-137178890.711944</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F134" t="n">
+        <v>892.3539</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-137177998.358044</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F135" t="n">
+        <v>967.8976</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-137177998.358044</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5606</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5606</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5606</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5606</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2116211.6014</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-139294209.959444</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2703238.1488</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-141997448.1082439</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1574276.4346</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-140423171.6736439</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2673553.1206</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-143096724.7942439</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1383811.725</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-143096724.7942439</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1883801.904</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-144980526.6982439</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1500313.1546</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-146480839.8528439</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5659</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.5659</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1039914.2796</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-145440925.5732439</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.5633</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5633</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.5633</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.5633</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2239146.5979</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-147680072.1711439</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2628581.8417</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-150308654.0128439</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2581633.1826</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-147727020.8302439</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.5643</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.5643</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.5643</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.5643</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1455956.5866</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-146271064.2436439</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1641683.8122</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-147912748.0558439</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="F149" t="n">
+        <v>11079217.8231</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-158991965.8789439</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3137474.3015</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-155854491.577444</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2293823.3311</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-153560668.246344</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="F152" t="n">
+        <v>106281.0181</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-153666949.264444</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F153" t="n">
+        <v>959.4068</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-153665989.857644</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.5586</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5586</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.5586</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.5586</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1491094.7959</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-155157084.6535439</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.5626</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.5626</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.5626</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.5626</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1408195.252</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-153748889.4015439</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1279576.4135</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-155028465.815044</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1019395.1535</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-156047860.9685439</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1905734.259</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-154142126.7095439</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1245238.5939</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-152896888.1156439</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3144760.7375</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-156041648.853144</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3135234.8799</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-152906413.973244</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1899256.6822</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-151007157.2910439</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>842714.9939</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-151849872.2849439</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1613977.6309</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-150235894.6540439</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2904327.457</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-153140222.1110439</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2061121.0201</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-155201343.1311439</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2178200.1934</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-157379543.3245439</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="F168" t="n">
+        <v>694085.3107</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-156685458.0138439</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1237.729</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-156685458.0138439</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1744179.03</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-158429637.0438439</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F171" t="n">
+        <v>934.4586</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-158428702.5852439</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1025244.9355</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-159453947.5207439</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F173" t="n">
+        <v>929.0683</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-159453018.4524439</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1200768.4791</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-160653786.9315439</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1384995.0944</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-162038782.0259439</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="F176" t="n">
+        <v>707302.4126</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-162746084.4385439</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
         <v>0.5581</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C177" t="n">
         <v>0.5581</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D177" t="n">
         <v>0.5581</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E177" t="n">
         <v>0.5581</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F177" t="n">
         <v>2710971.4825</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G177" t="n">
         <v>-160035112.9560439</v>
       </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.5575</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.5639</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-76224361.29061371</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-76223471.40941371</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-81455283.50011371</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-81454380.52341372</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-84391729.42021371</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-118114262.3575137</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-120369985.9872137</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>-118877213.8957137</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>-119935020.5087137</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-119935020.5087137</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>-119934033.4154137</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-120908094.4154137</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,22 +4149,13 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.5649999999999999</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4530,22 +4180,15 @@
         <v>-121889298.9126137</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4572,22 +4215,13 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.5602</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4614,22 +4248,13 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.5673</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4656,22 +4281,13 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.5618</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4698,22 +4314,13 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.5590000000000001</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4738,24 +4345,15 @@
         <v>-123610940.997144</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.5585</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4782,22 +4380,13 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.5669</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4822,24 +4411,15 @@
         <v>-126424661.693444</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.5672</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4864,24 +4444,19 @@
         <v>-128376129.677944</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>0.5657</v>
       </c>
       <c r="J123" t="n">
         <v>0.5657</v>
       </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4906,24 +4481,21 @@
         <v>-128375237.960744</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+        <v>0.5657</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4948,24 +4520,23 @@
         <v>-128376135.960744</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>0.5672</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+        <v>0.5657</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4992,20 +4563,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5030,24 +4594,19 @@
         <v>-131458878.509444</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>0.5672</v>
       </c>
       <c r="J127" t="n">
         <v>0.5672</v>
       </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5072,24 +4631,23 @@
         <v>-131457909.507444</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>0.5605</v>
       </c>
       <c r="J128" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+        <v>0.5672</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5114,22 +4672,23 @@
         <v>-133077129.449044</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+        <v>0.5672</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5156,20 +4715,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5196,20 +4748,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5234,22 +4779,19 @@
         <v>-136233926.0840439</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0.5636</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.5636</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5274,22 +4816,23 @@
         <v>-137178890.711944</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+        <v>0.5672</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5314,22 +4857,23 @@
         <v>-137177998.358044</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+        <v>0.5592</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5354,22 +4898,19 @@
         <v>-137177998.358044</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0.5672</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.5672</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5394,22 +4935,21 @@
         <v>-139294209.959444</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5434,22 +4974,23 @@
         <v>-141997448.1082439</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+        <v>0.5606</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5476,20 +5017,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5516,20 +5050,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5556,20 +5083,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5596,20 +5116,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5636,20 +5149,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5674,22 +5180,19 @@
         <v>-145440925.5732439</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0.5616</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.5616</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5716,20 +5219,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5756,20 +5258,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5796,20 +5297,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5836,20 +5330,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5876,20 +5363,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5916,20 +5396,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5956,20 +5429,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5996,20 +5462,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6036,20 +5495,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6076,20 +5528,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6116,20 +5561,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6156,20 +5594,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6196,20 +5627,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6236,20 +5660,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6276,20 +5693,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6316,20 +5726,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6356,20 +5759,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6396,20 +5792,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6436,20 +5825,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6476,20 +5858,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6516,20 +5891,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6556,20 +5924,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6596,20 +5957,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6636,20 +5990,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6676,20 +6023,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6716,20 +6056,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6756,20 +6089,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6796,20 +6122,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6836,20 +6155,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6876,20 +6188,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6916,20 +6221,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6956,20 +6254,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6996,20 +6287,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7036,22 +6320,15 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,7 +1111,7 @@
         <v>-68821314.49799998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-70214969.23599999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-72701259.94189999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-70236963.18839999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-76224361.29061371</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-76223471.40941371</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-78920035.98941371</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-81455283.50011371</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-81454380.52341372</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-84391729.42021371</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-88357465.48091371</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-86137594.73981372</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-91453561.70641372</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-91452660.70761372</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-93549836.84861372</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-96396498.13561372</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-94918436.51251373</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-97887928.88751373</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-94794327.08901373</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-94793424.35541372</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-96879482.48951373</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-95396383.05361372</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-95382966.45321372</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-96699483.81471372</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-97468400.23841372</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-96528365.30141371</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-96681444.11291371</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-97417588.35701372</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-100893128.1145137</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-101106361.1145137</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-118114262.3575137</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-120369985.9872137</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-118877213.8957137</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-119935020.5087137</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-119935020.5087137</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-119934033.4154137</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-120908094.4154137</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-120865836.4686137</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-121889298.9126137</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-121888313.8845137</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-123285533.9658439</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-125953913.4676439</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-126113224.468844</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,10 +4345,14 @@
         <v>-123610940.997144</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.5585</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
@@ -4378,11 +4382,17 @@
         <v>-123610051.823844</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4421,17 @@
         <v>-126424661.693444</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,14 +4460,10 @@
         <v>-128376129.677944</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.5657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4481,17 +4493,15 @@
         <v>-128375237.960744</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.5614</v>
+      </c>
       <c r="J124" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.5614</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4520,13 +4530,13 @@
         <v>-128376135.960744</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0.5672</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5657</v>
+        <v>0.5614</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4561,11 +4571,19 @@
         <v>-128375226.989344</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +4612,10 @@
         <v>-131458878.509444</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.5672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4631,19 +4645,15 @@
         <v>-131457909.507444</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0.5605</v>
       </c>
       <c r="J128" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.5605</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4672,13 +4682,13 @@
         <v>-133077129.449044</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0.5672</v>
       </c>
       <c r="J129" t="n">
-        <v>0.5672</v>
+        <v>0.5605</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4713,11 +4723,19 @@
         <v>-133076236.654644</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.5649</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4779,7 +4797,7 @@
         <v>-136233926.0840439</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0.5636</v>
@@ -4816,7 +4834,7 @@
         <v>-137178890.711944</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0.5672</v>
@@ -4857,7 +4875,7 @@
         <v>-137177998.358044</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0.5592</v>
@@ -4898,14 +4916,10 @@
         <v>-137177998.358044</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.5672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4935,17 +4949,11 @@
         <v>-139294209.959444</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4974,19 +4982,11 @@
         <v>-141997448.1082439</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>-145440925.5732439</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0.5616</v>
@@ -5295,10 +5295,14 @@
         <v>-147727020.8302439</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.5618</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5331,8 +5335,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5364,8 +5374,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6329,6 +6345,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-68279400.9075</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-70268170.98719999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-72438785.34459999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-75515206.19499999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-74335401.40259999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-72832291.06259999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-70805490.26059999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-70214969.23599999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-72701259.94189999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-70236963.18839999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-76224361.29061371</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-76223471.40941371</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-78920035.98941371</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-88357465.48091371</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-86137594.73981372</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-91453561.70641372</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-91452660.70761372</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-93549836.84861372</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-96396498.13561372</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-94918436.51251373</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-97887928.88751373</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-94794327.08901373</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-94793424.35541372</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-96879482.48951373</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-95382966.45321372</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-96699483.81471372</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-97468400.23841372</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-94106684.65401371</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-97417588.35701372</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-100893128.1145137</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-101162075.4193137</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-101162075.4193137</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4312,10 +4312,14 @@
         <v>-126113224.468844</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.5590000000000001</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4351,9 +4355,13 @@
         <v>0.5585</v>
       </c>
       <c r="J120" t="n">
-        <v>0.5585</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4386,7 +4394,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>0.5585</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4424,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.5585</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4493,14 +4495,10 @@
         <v>-128375237.960744</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.5614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4530,19 +4528,11 @@
         <v>-128376135.960744</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4571,19 +4561,11 @@
         <v>-128375226.989344</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4645,14 +4627,10 @@
         <v>-131457909.507444</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.5605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4682,19 +4660,11 @@
         <v>-133077129.449044</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4723,19 +4693,11 @@
         <v>-133076236.654644</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.5649</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4797,14 +4759,10 @@
         <v>-136233926.0840439</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.5636</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.5636</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4834,19 +4792,11 @@
         <v>-137178890.711944</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.5636</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4875,19 +4825,11 @@
         <v>-137177998.358044</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.5592</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.5636</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5180,14 +5122,10 @@
         <v>-145440925.5732439</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.5616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5220,14 +5158,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5259,14 +5191,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5295,14 +5221,10 @@
         <v>-147727020.8302439</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.5618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5335,14 +5257,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5374,14 +5290,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6345,6 +6255,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -451,7 +451,7 @@
         <v>-68279400.9075</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-70268170.98719999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-72438785.34459999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-75515206.19499999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-74335401.40259999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-72832291.06259999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-70805490.26059999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-68821314.49799998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-72362769.33971371</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-73782869.20151371</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-73781792.78351371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-76224361.29061371</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-78920035.98941371</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-78919159.41751371</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-81455283.50011371</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-84391729.42021371</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-88357465.48091371</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-95396383.05361372</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-96528365.30141371</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-94106684.65401371</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-96681444.11291371</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-101106361.1145137</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-101162075.4193137</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-101162075.4193137</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4279,10 +4279,14 @@
         <v>-125953913.4676439</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5618</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4318,9 +4322,13 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+        <v>0.5618</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4355,7 +4363,7 @@
         <v>0.5585</v>
       </c>
       <c r="J120" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5618</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4390,50 +4398,56 @@
         <v>-123610051.823844</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.5669</v>
+      </c>
       <c r="J121" t="n">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="K121" t="inlineStr">
+        <v>0.5669</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2814609.8696</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-126424661.693444</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2814609.8696</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-126424661.693444</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4462,11 +4476,19 @@
         <v>-128376129.677944</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4495,10 +4517,14 @@
         <v>-128375237.960744</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.5614</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4528,11 +4554,19 @@
         <v>-128376135.960744</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4561,11 +4595,19 @@
         <v>-128375226.989344</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4594,10 +4636,14 @@
         <v>-131458878.509444</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.5672</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4627,11 +4673,19 @@
         <v>-131457909.507444</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4663,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4825,10 +4885,14 @@
         <v>-137177998.358044</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.5592</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -4861,8 +4925,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4894,8 +4964,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4957,10 +5033,14 @@
         <v>-140423171.6736439</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.5584</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4993,8 +5073,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5026,8 +5112,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5122,10 +5214,14 @@
         <v>-145440925.5732439</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.5616</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5158,8 +5254,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5191,8 +5293,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5221,10 +5329,14 @@
         <v>-147727020.8302439</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.5618</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5257,8 +5369,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5290,8 +5408,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +5444,19 @@
         <v>-158991965.8789439</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +5488,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5389,8 +5527,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +5566,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +5605,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +5644,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +5683,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5554,8 +5722,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5587,8 +5761,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5617,11 +5797,19 @@
         <v>-154142126.7095439</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5653,8 +5841,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5686,8 +5880,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5719,8 +5919,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5752,8 +5958,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5785,8 +5997,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5818,8 +6036,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5851,8 +6075,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +6114,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6153,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5950,8 +6192,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5983,8 +6231,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6016,8 +6270,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6049,8 +6309,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6082,8 +6348,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6115,8 +6387,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6148,8 +6426,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6181,8 +6465,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6214,8 +6504,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6244,11 +6540,19 @@
         <v>-160035112.9560439</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.5575</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-25 BackTest APIS.xlsx
+++ b/BackTest/2020-01-25 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>906.1775</v>
       </c>
       <c r="G2" t="n">
-        <v>-68279400.9075</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1988770.0797</v>
       </c>
       <c r="G3" t="n">
-        <v>-70268170.98719999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2170614.3574</v>
       </c>
       <c r="G4" t="n">
-        <v>-72438785.34459999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3076420.8504</v>
       </c>
       <c r="G5" t="n">
-        <v>-75515206.19499999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1179804.7924</v>
       </c>
       <c r="G6" t="n">
-        <v>-74335401.40259999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1503110.34</v>
       </c>
       <c r="G7" t="n">
-        <v>-72832291.06259999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1909825.3636</v>
       </c>
       <c r="G8" t="n">
-        <v>-74742116.42619999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1094821.9038</v>
       </c>
       <c r="G9" t="n">
-        <v>-75836938.32999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2335096.7155</v>
       </c>
       <c r="G10" t="n">
-        <v>-73501841.61449999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2696351.3539</v>
       </c>
       <c r="G11" t="n">
-        <v>-70805490.26059999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2430204.4937</v>
       </c>
       <c r="G12" t="n">
-        <v>-73235694.75429998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1468948.4239</v>
       </c>
       <c r="G13" t="n">
-        <v>-74704643.17819998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2436198.6522</v>
       </c>
       <c r="G14" t="n">
-        <v>-72268444.52599998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1149541.3004</v>
       </c>
       <c r="G15" t="n">
-        <v>-73417985.82639998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1488329.678</v>
       </c>
       <c r="G16" t="n">
-        <v>-71929656.14839998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1413158.6431</v>
       </c>
       <c r="G17" t="n">
-        <v>-70516497.50529999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1827401.4639</v>
       </c>
       <c r="G18" t="n">
-        <v>-68689096.04139999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2196820.7546</v>
       </c>
       <c r="G19" t="n">
-        <v>-66492275.28679998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2381449.9203</v>
       </c>
       <c r="G20" t="n">
-        <v>-68873725.20709999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2307749.5054</v>
       </c>
       <c r="G21" t="n">
-        <v>-66565975.70169999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2255338.7963</v>
       </c>
       <c r="G22" t="n">
-        <v>-68821314.49799998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>983372.0595</v>
       </c>
       <c r="G23" t="n">
-        <v>-67837942.43849999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2377026.7975</v>
       </c>
       <c r="G24" t="n">
-        <v>-70214969.23599999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2486290.7059</v>
       </c>
       <c r="G25" t="n">
-        <v>-72701259.94189999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2464296.7535</v>
       </c>
       <c r="G26" t="n">
-        <v>-70236963.18839999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2580323.6374</v>
       </c>
       <c r="G27" t="n">
-        <v>-72817286.82579999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2845585.9264</v>
       </c>
       <c r="G28" t="n">
-        <v>-75662872.75219999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2957544.5661</v>
       </c>
       <c r="G29" t="n">
-        <v>-72705328.18609999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1024.4188</v>
       </c>
       <c r="G30" t="n">
-        <v>-72704303.76729999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1940695.398</v>
       </c>
       <c r="G31" t="n">
-        <v>-74644999.1653</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2121982.3327</v>
       </c>
       <c r="G32" t="n">
-        <v>-72523016.8326</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>936.4915999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-72522080.34099999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>159311.0012862772</v>
       </c>
       <c r="G34" t="n">
-        <v>-72362769.33971371</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1420099.8618</v>
       </c>
       <c r="G35" t="n">
-        <v>-73782869.20151371</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1076.418</v>
       </c>
       <c r="G36" t="n">
-        <v>-73781792.78351371</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1062608.7469</v>
       </c>
       <c r="G37" t="n">
-        <v>-73781792.78351371</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2442568.5071</v>
       </c>
       <c r="G38" t="n">
-        <v>-76224361.29061371</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>889.8812</v>
       </c>
       <c r="G39" t="n">
-        <v>-76223471.40941371</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2696564.58</v>
       </c>
       <c r="G40" t="n">
-        <v>-78920035.98941371</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>876.5719</v>
       </c>
       <c r="G41" t="n">
-        <v>-78919159.41751371</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2536124.0826</v>
       </c>
       <c r="G42" t="n">
-        <v>-81455283.50011371</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>902.9767000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-81454380.52341372</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2937348.8968</v>
       </c>
       <c r="G44" t="n">
-        <v>-84391729.42021371</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>882.8774</v>
       </c>
       <c r="G45" t="n">
-        <v>-84390846.54281372</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1034104.3157</v>
       </c>
       <c r="G46" t="n">
-        <v>-85424950.85851371</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>899.7709</v>
       </c>
       <c r="G47" t="n">
-        <v>-85424051.08761372</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2933414.3933</v>
       </c>
       <c r="G48" t="n">
-        <v>-88357465.48091371</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2218995.5165</v>
       </c>
       <c r="G49" t="n">
-        <v>-86138469.96441372</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>875.2246</v>
       </c>
       <c r="G50" t="n">
-        <v>-86137594.73981372</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2689131.3228</v>
       </c>
       <c r="G51" t="n">
-        <v>-88826726.06261371</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2626835.6438</v>
       </c>
       <c r="G52" t="n">
-        <v>-91453561.70641372</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>900.9988</v>
       </c>
       <c r="G53" t="n">
-        <v>-91452660.70761372</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2097176.141</v>
       </c>
       <c r="G54" t="n">
-        <v>-93549836.84861372</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2846661.287</v>
       </c>
       <c r="G55" t="n">
-        <v>-96396498.13561372</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1478061.6231</v>
       </c>
       <c r="G56" t="n">
-        <v>-94918436.51251373</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2969492.375</v>
       </c>
       <c r="G57" t="n">
-        <v>-97887928.88751373</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>3093601.7985</v>
       </c>
       <c r="G58" t="n">
-        <v>-94794327.08901373</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>902.7336</v>
       </c>
       <c r="G59" t="n">
-        <v>-94793424.35541372</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2086058.1341</v>
       </c>
       <c r="G60" t="n">
-        <v>-96879482.48951373</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1483099.4359</v>
       </c>
       <c r="G61" t="n">
-        <v>-95396383.05361372</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>13416.6004</v>
       </c>
       <c r="G62" t="n">
-        <v>-95382966.45321372</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1316517.3615</v>
       </c>
       <c r="G63" t="n">
-        <v>-96699483.81471372</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>768916.4237</v>
       </c>
       <c r="G64" t="n">
-        <v>-97468400.23841372</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2532566.0477</v>
       </c>
       <c r="G65" t="n">
-        <v>-94935834.19071372</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1592531.1107</v>
       </c>
       <c r="G66" t="n">
-        <v>-96528365.30141371</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2421680.6474</v>
       </c>
       <c r="G67" t="n">
-        <v>-94106684.65401371</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2574759.4589</v>
       </c>
       <c r="G68" t="n">
-        <v>-96681444.11291371</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10000</v>
       </c>
       <c r="G69" t="n">
-        <v>-96671444.11291371</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>746144.2441</v>
       </c>
       <c r="G70" t="n">
-        <v>-97417588.35701372</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>2164166.1966</v>
       </c>
       <c r="G71" t="n">
-        <v>-99581754.55361372</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>873370.9807</v>
       </c>
       <c r="G72" t="n">
-        <v>-98708383.57291372</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2184744.5416</v>
       </c>
       <c r="G73" t="n">
-        <v>-100893128.1145137</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>213233</v>
       </c>
       <c r="G74" t="n">
-        <v>-101106361.1145137</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>55714.3048</v>
       </c>
       <c r="G75" t="n">
-        <v>-101162075.4193137</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>5113.9402</v>
       </c>
       <c r="G76" t="n">
-        <v>-101162075.4193137</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2103768</v>
       </c>
       <c r="G77" t="n">
-        <v>-103265843.4193137</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2853151.3382</v>
       </c>
       <c r="G78" t="n">
-        <v>-103265843.4193137</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>986360.3958000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-102279483.0235137</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>938.9132</v>
       </c>
       <c r="G80" t="n">
-        <v>-102278544.1103137</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1729867.2377</v>
       </c>
       <c r="G81" t="n">
-        <v>-104008411.3480137</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>915.2190000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-104007496.1290137</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>2231643.9681</v>
       </c>
       <c r="G83" t="n">
-        <v>-106239140.0971137</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>900.354</v>
       </c>
       <c r="G84" t="n">
-        <v>-106238239.7431137</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1845194.3445</v>
       </c>
       <c r="G85" t="n">
-        <v>-108083434.0876137</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2224603.2829</v>
       </c>
       <c r="G86" t="n">
-        <v>-105858830.8047137</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1054.6799</v>
       </c>
       <c r="G87" t="n">
-        <v>-105857776.1248137</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>2888256.4699</v>
       </c>
       <c r="G88" t="n">
-        <v>-108746032.5947137</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>664499.9236</v>
       </c>
       <c r="G89" t="n">
-        <v>-108081532.6711137</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>905.8119</v>
       </c>
       <c r="G90" t="n">
-        <v>-108080626.8592137</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1918350.1292</v>
       </c>
       <c r="G91" t="n">
-        <v>-109998976.9884137</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>999840.4379</v>
       </c>
       <c r="G92" t="n">
-        <v>-108999136.5505137</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1331437.2943</v>
       </c>
       <c r="G93" t="n">
-        <v>-110330573.8448137</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1125221.0671</v>
       </c>
       <c r="G94" t="n">
-        <v>-111455794.9119137</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>905.7688000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-111454889.1431137</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1533831.1892</v>
       </c>
       <c r="G96" t="n">
-        <v>-112988720.3323137</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1257977.8634</v>
       </c>
       <c r="G97" t="n">
-        <v>-111730742.4689137</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>927.7915</v>
       </c>
       <c r="G98" t="n">
-        <v>-111729814.6774137</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>798226.9229</v>
       </c>
       <c r="G99" t="n">
-        <v>-112528041.6003137</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>881.9277</v>
       </c>
       <c r="G100" t="n">
-        <v>-112527159.6726137</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1632211.22</v>
       </c>
       <c r="G101" t="n">
-        <v>-114159370.8926137</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>892.1420000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-114158478.7506137</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1100615.4606</v>
       </c>
       <c r="G103" t="n">
-        <v>-115259094.2112137</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>943.2114</v>
       </c>
       <c r="G104" t="n">
-        <v>-115258150.9998137</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2856111.3577</v>
       </c>
       <c r="G105" t="n">
-        <v>-118114262.3575137</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1508711.3387</v>
       </c>
       <c r="G106" t="n">
-        <v>-119622973.6962137</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>747012.291</v>
       </c>
       <c r="G107" t="n">
-        <v>-120369985.9872137</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>1492772.0915</v>
       </c>
       <c r="G108" t="n">
-        <v>-118877213.8957137</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1058845.7051</v>
       </c>
       <c r="G109" t="n">
-        <v>-119936059.6008137</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1039.0921</v>
       </c>
       <c r="G110" t="n">
-        <v>-119935020.5087137</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>593685.7971</v>
       </c>
       <c r="G111" t="n">
-        <v>-119935020.5087137</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>987.0933</v>
       </c>
       <c r="G112" t="n">
-        <v>-119934033.4154137</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>974061</v>
       </c>
       <c r="G113" t="n">
-        <v>-120908094.4154137</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,21 @@
         <v>42257.9468</v>
       </c>
       <c r="G114" t="n">
-        <v>-120865836.4686137</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3839,21 @@
         <v>1023462.444</v>
       </c>
       <c r="G115" t="n">
-        <v>-121889298.9126137</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.5673</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3875,21 @@
         <v>985.0281</v>
       </c>
       <c r="G116" t="n">
-        <v>-121888313.8845137</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>0.5602</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3911,21 @@
         <v>1397220.081330231</v>
       </c>
       <c r="G117" t="n">
-        <v>-123285533.9658439</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>0.5673</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,22 +3947,21 @@
         <v>2668379.5018</v>
       </c>
       <c r="G118" t="n">
-        <v>-125953913.4676439</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
         <v>0.5618</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4313,383 +3983,335 @@
         <v>159311.0012</v>
       </c>
       <c r="G119" t="n">
-        <v>-126113224.468844</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
         <v>0.5590000000000001</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2502283.4717</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F121" t="n">
+        <v>889.1733</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2814609.8696</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1951467.9845</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F124" t="n">
+        <v>891.7172</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="F125" t="n">
+        <v>898</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F126" t="n">
+        <v>908.9714</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3083651.5201</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="J127" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2502283.4717</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-123610940.997144</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.5585</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="F128" t="n">
+        <v>969.002</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="J128" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="F121" t="n">
-        <v>889.1733</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-123610051.823844</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2814609.8696</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-126424661.693444</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1951467.9845</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-128376129.677944</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.5657</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="F124" t="n">
-        <v>891.7172</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-128375237.960744</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="F125" t="n">
-        <v>898</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-128376135.960744</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="F126" t="n">
-        <v>908.9714</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-128375226.989344</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.5614</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3083651.5201</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-131458878.509444</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="F128" t="n">
-        <v>969.002</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-131457909.507444</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.5605</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4711,24 +4333,15 @@
         <v>1619219.9416</v>
       </c>
       <c r="G129" t="n">
-        <v>-133077129.449044</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4750,18 +4363,15 @@
         <v>892.7944</v>
       </c>
       <c r="G130" t="n">
-        <v>-133076236.654644</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4783,18 +4393,15 @@
         <v>3159617.7344</v>
       </c>
       <c r="G131" t="n">
-        <v>-136235854.389044</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4816,18 +4423,15 @@
         <v>1928.305</v>
       </c>
       <c r="G132" t="n">
-        <v>-136233926.0840439</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4849,18 +4453,15 @@
         <v>944964.6279</v>
       </c>
       <c r="G133" t="n">
-        <v>-137178890.711944</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4882,22 +4483,15 @@
         <v>892.3539</v>
       </c>
       <c r="G134" t="n">
-        <v>-137177998.358044</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.5592</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.5592</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4919,24 +4513,15 @@
         <v>967.8976</v>
       </c>
       <c r="G135" t="n">
-        <v>-137177998.358044</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.5592</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4958,24 +4543,15 @@
         <v>2116211.6014</v>
       </c>
       <c r="G136" t="n">
-        <v>-139294209.959444</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.5592</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4997,18 +4573,15 @@
         <v>2703238.1488</v>
       </c>
       <c r="G137" t="n">
-        <v>-141997448.1082439</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5030,22 +4603,15 @@
         <v>1574276.4346</v>
       </c>
       <c r="G138" t="n">
-        <v>-140423171.6736439</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5067,24 +4633,15 @@
         <v>2673553.1206</v>
       </c>
       <c r="G139" t="n">
-        <v>-143096724.7942439</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5106,24 +4663,15 @@
         <v>1383811.725</v>
       </c>
       <c r="G140" t="n">
-        <v>-143096724.7942439</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.5584</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5145,18 +4693,15 @@
         <v>1883801.904</v>
       </c>
       <c r="G141" t="n">
-        <v>-144980526.6982439</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5178,18 +4723,15 @@
         <v>1500313.1546</v>
       </c>
       <c r="G142" t="n">
-        <v>-146480839.8528439</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5211,22 +4753,15 @@
         <v>1039914.2796</v>
       </c>
       <c r="G143" t="n">
-        <v>-145440925.5732439</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5248,24 +4783,15 @@
         <v>2239146.5979</v>
       </c>
       <c r="G144" t="n">
-        <v>-147680072.1711439</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5287,24 +4813,15 @@
         <v>2628581.8417</v>
       </c>
       <c r="G145" t="n">
-        <v>-150308654.0128439</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.5616</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5326,22 +4843,15 @@
         <v>2581633.1826</v>
       </c>
       <c r="G146" t="n">
-        <v>-147727020.8302439</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5363,24 +4873,15 @@
         <v>1455956.5866</v>
       </c>
       <c r="G147" t="n">
-        <v>-146271064.2436439</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5402,24 +4903,15 @@
         <v>1641683.8122</v>
       </c>
       <c r="G148" t="n">
-        <v>-147912748.0558439</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5441,26 +4933,15 @@
         <v>11079217.8231</v>
       </c>
       <c r="G149" t="n">
-        <v>-158991965.8789439</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.5631</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5482,24 +4963,15 @@
         <v>3137474.3015</v>
       </c>
       <c r="G150" t="n">
-        <v>-155854491.577444</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5521,24 +4993,15 @@
         <v>2293823.3311</v>
       </c>
       <c r="G151" t="n">
-        <v>-153560668.246344</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5560,24 +5023,15 @@
         <v>106281.0181</v>
       </c>
       <c r="G152" t="n">
-        <v>-153666949.264444</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5599,24 +5053,15 @@
         <v>959.4068</v>
       </c>
       <c r="G153" t="n">
-        <v>-153665989.857644</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5638,24 +5083,15 @@
         <v>1491094.7959</v>
       </c>
       <c r="G154" t="n">
-        <v>-155157084.6535439</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5677,24 +5113,15 @@
         <v>1408195.252</v>
       </c>
       <c r="G155" t="n">
-        <v>-153748889.4015439</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5716,24 +5143,15 @@
         <v>1279576.4135</v>
       </c>
       <c r="G156" t="n">
-        <v>-155028465.815044</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5755,24 +5173,15 @@
         <v>1019395.1535</v>
       </c>
       <c r="G157" t="n">
-        <v>-156047860.9685439</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5794,26 +5203,15 @@
         <v>1905734.259</v>
       </c>
       <c r="G158" t="n">
-        <v>-154142126.7095439</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.5583</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5835,24 +5233,15 @@
         <v>1245238.5939</v>
       </c>
       <c r="G159" t="n">
-        <v>-152896888.1156439</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5874,24 +5263,15 @@
         <v>3144760.7375</v>
       </c>
       <c r="G160" t="n">
-        <v>-156041648.853144</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5913,24 +5293,15 @@
         <v>3135234.8799</v>
       </c>
       <c r="G161" t="n">
-        <v>-152906413.973244</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5952,24 +5323,15 @@
         <v>1899256.6822</v>
       </c>
       <c r="G162" t="n">
-        <v>-151007157.2910439</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5991,24 +5353,15 @@
         <v>842714.9939</v>
       </c>
       <c r="G163" t="n">
-        <v>-151849872.2849439</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6030,24 +5383,15 @@
         <v>1613977.6309</v>
       </c>
       <c r="G164" t="n">
-        <v>-150235894.6540439</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6069,24 +5413,15 @@
         <v>2904327.457</v>
       </c>
       <c r="G165" t="n">
-        <v>-153140222.1110439</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6108,24 +5443,15 @@
         <v>2061121.0201</v>
       </c>
       <c r="G166" t="n">
-        <v>-155201343.1311439</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6147,24 +5473,15 @@
         <v>2178200.1934</v>
       </c>
       <c r="G167" t="n">
-        <v>-157379543.3245439</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6186,24 +5503,15 @@
         <v>694085.3107</v>
       </c>
       <c r="G168" t="n">
-        <v>-156685458.0138439</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6225,24 +5533,15 @@
         <v>1237.729</v>
       </c>
       <c r="G169" t="n">
-        <v>-156685458.0138439</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6264,24 +5563,15 @@
         <v>1744179.03</v>
       </c>
       <c r="G170" t="n">
-        <v>-158429637.0438439</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6303,24 +5593,15 @@
         <v>934.4586</v>
       </c>
       <c r="G171" t="n">
-        <v>-158428702.5852439</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6342,24 +5623,15 @@
         <v>1025244.9355</v>
       </c>
       <c r="G172" t="n">
-        <v>-159453947.5207439</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6381,24 +5653,15 @@
         <v>929.0683</v>
       </c>
       <c r="G173" t="n">
-        <v>-159453018.4524439</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6420,24 +5683,15 @@
         <v>1200768.4791</v>
       </c>
       <c r="G174" t="n">
-        <v>-160653786.9315439</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6459,24 +5713,15 @@
         <v>1384995.0944</v>
       </c>
       <c r="G175" t="n">
-        <v>-162038782.0259439</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6498,24 +5743,15 @@
         <v>707302.4126</v>
       </c>
       <c r="G176" t="n">
-        <v>-162746084.4385439</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6537,26 +5773,15 @@
         <v>2710971.4825</v>
       </c>
       <c r="G177" t="n">
-        <v>-160035112.9560439</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.5575</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
